--- a/outputs-r202/train-g__Lachnospira.xlsx
+++ b/outputs-r202/train-g__Lachnospira.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="552">
   <si>
     <t>Row</t>
   </si>
@@ -1355,6 +1356,324 @@
   </si>
   <si>
     <t>GB_GCA_900772425.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000146185.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000146185.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000146185.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003512745.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003512745.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003512745.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003534635.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003465585.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003470215.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003473405.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003473445.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003474205.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000424105.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000424105.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000424105.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000424105.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900108125.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900108125.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900108125.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900108125.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900108125.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900108125.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002372155.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002372155.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002372155.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002372155.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621945.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621945.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000702205.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000702205.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103815.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103815.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103815.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103815.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103815.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003483025.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900112995.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003497285.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003511145.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008681125.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538585.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538585.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902388615.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902388615.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008679325.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538755.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538755.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008680475.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008680475.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008680475.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_008680475.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538595.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538595.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538595.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394205.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394205.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394565.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394565.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394565.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394565.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002448355.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435585.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002435585.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540585.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900761285.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900761285.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003464165.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003464165.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003466705.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003466705.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003537285.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538965.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900538965.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900757925.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900757925.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431735.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001916375.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316325.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796365.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796365.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545725.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545725.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545725.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900756365.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900756365.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547255.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547255.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547255.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547255.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900772185.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900772185.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900551945.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900551945.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900551945.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902388355.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902388355.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902388355.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900552795.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900552795.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900552795.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900552795.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900754395.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900772425.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900772425.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900772425.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900772425.1_6.fasta</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1694,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1391,11 +1710,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1405,6 +1726,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30646,4 +30969,7313 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V107"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="21.28515625" customWidth="true"/>
+    <col min="3" max="3" width="23.5703125" customWidth="true"/>
+    <col min="4" max="4" width="23.42578125" customWidth="true"/>
+    <col min="5" max="5" width="25.7109375" customWidth="true"/>
+    <col min="6" max="6" width="29" customWidth="true"/>
+    <col min="7" max="7" width="24.140625" customWidth="true"/>
+    <col min="8" max="8" width="25.85546875" customWidth="true"/>
+    <col min="9" max="9" width="25.85546875" customWidth="true"/>
+    <col min="10" max="10" width="25.85546875" customWidth="true"/>
+    <col min="11" max="11" width="25.85546875" customWidth="true"/>
+    <col min="12" max="12" width="25.85546875" customWidth="true"/>
+    <col min="13" max="13" width="25.85546875" customWidth="true"/>
+    <col min="14" max="14" width="25.85546875" customWidth="true"/>
+    <col min="15" max="15" width="25.85546875" customWidth="true"/>
+    <col min="16" max="16" width="25.85546875" customWidth="true"/>
+    <col min="17" max="17" width="25.85546875" customWidth="true"/>
+    <col min="18" max="18" width="25.85546875" customWidth="true"/>
+    <col min="19" max="19" width="25.85546875" customWidth="true"/>
+    <col min="20" max="20" width="25.85546875" customWidth="true"/>
+    <col min="21" max="21" width="10.28515625" customWidth="true"/>
+    <col min="22" max="22" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2">
+        <v>0.87545990805562868</v>
+      </c>
+      <c r="C2">
+        <v>0.041844032651987481</v>
+      </c>
+      <c r="D2">
+        <v>2.1594521795139415e-11</v>
+      </c>
+      <c r="E2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="F2">
+        <v>2.5688559180016434e-05</v>
+      </c>
+      <c r="G2">
+        <v>0.0051111629680708655</v>
+      </c>
+      <c r="H2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="J2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="K2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="L2">
+        <v>1.944574686963126e-08</v>
+      </c>
+      <c r="M2">
+        <v>0.0099395141558413433</v>
+      </c>
+      <c r="N2">
+        <v>0.067619674141705929</v>
+      </c>
+      <c r="O2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="P2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="Q2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="R2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="S2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="T2">
+        <v>2.2205493565601986e-14</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3">
+        <v>0.55209544308360292</v>
+      </c>
+      <c r="C3">
+        <v>0.042624072024305806</v>
+      </c>
+      <c r="D3">
+        <v>5.6074080145129946e-10</v>
+      </c>
+      <c r="E3">
+        <v>1.2128186463203142e-12</v>
+      </c>
+      <c r="F3">
+        <v>0.0050028181327603114</v>
+      </c>
+      <c r="G3">
+        <v>0.2609226210399801</v>
+      </c>
+      <c r="H3">
+        <v>1.2128186463203142e-12</v>
+      </c>
+      <c r="I3">
+        <v>1.2128186463203142e-12</v>
+      </c>
+      <c r="J3">
+        <v>1.2128186463203142e-12</v>
+      </c>
+      <c r="K3">
+        <v>1.2128186463203166e-12</v>
+      </c>
+      <c r="L3">
+        <v>2.3781139336831293e-07</v>
+      </c>
+      <c r="M3">
+        <v>0.00021497802677991439</v>
+      </c>
+      <c r="N3">
+        <v>0.1391398293070952</v>
+      </c>
+      <c r="O3">
+        <v>1.2128186463203174e-12</v>
+      </c>
+      <c r="P3">
+        <v>1.2128186463203174e-12</v>
+      </c>
+      <c r="Q3">
+        <v>1.2128186463203174e-12</v>
+      </c>
+      <c r="R3">
+        <v>1.2128186463203174e-12</v>
+      </c>
+      <c r="S3">
+        <v>1.2128186463203166e-12</v>
+      </c>
+      <c r="T3">
+        <v>1.2128186463203166e-12</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4">
+        <v>0.5823727960809838</v>
+      </c>
+      <c r="C4">
+        <v>0.09950872487557709</v>
+      </c>
+      <c r="D4">
+        <v>2.4665181154692795e-11</v>
+      </c>
+      <c r="E4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="F4">
+        <v>1.5683771054226898e-05</v>
+      </c>
+      <c r="G4">
+        <v>0.017663017455699686</v>
+      </c>
+      <c r="H4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="K4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="L4">
+        <v>2.1634209072120809e-09</v>
+      </c>
+      <c r="M4">
+        <v>0.034696518120627073</v>
+      </c>
+      <c r="N4">
+        <v>0.26574325750772765</v>
+      </c>
+      <c r="O4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="P4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="Q4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="R4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="S4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="T4">
+        <v>2.2215000535004014e-14</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5">
+        <v>0.055949348652660082</v>
+      </c>
+      <c r="C5">
+        <v>0.79266290452826449</v>
+      </c>
+      <c r="D5">
+        <v>1.4210582562408536e-10</v>
+      </c>
+      <c r="E5">
+        <v>4.4627887195139793e-14</v>
+      </c>
+      <c r="F5">
+        <v>3.9441467880901649e-06</v>
+      </c>
+      <c r="G5">
+        <v>0.03405526708734552</v>
+      </c>
+      <c r="H5">
+        <v>4.4627887195139806e-14</v>
+      </c>
+      <c r="I5">
+        <v>4.46278871951398e-14</v>
+      </c>
+      <c r="J5">
+        <v>4.46278871951398e-14</v>
+      </c>
+      <c r="K5">
+        <v>4.4627887195139793e-14</v>
+      </c>
+      <c r="L5">
+        <v>2.7599898289236016e-07</v>
+      </c>
+      <c r="M5">
+        <v>0.070802338056640213</v>
+      </c>
+      <c r="N5">
+        <v>0.046525921386722367</v>
+      </c>
+      <c r="O5">
+        <v>4.46278871951398e-14</v>
+      </c>
+      <c r="P5">
+        <v>4.4627887195139806e-14</v>
+      </c>
+      <c r="Q5">
+        <v>4.4627887195139806e-14</v>
+      </c>
+      <c r="R5">
+        <v>4.4627887195139806e-14</v>
+      </c>
+      <c r="S5">
+        <v>4.4627887195139774e-14</v>
+      </c>
+      <c r="T5">
+        <v>4.4627887195139774e-14</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6">
+        <v>5.1259950174357596e-05</v>
+      </c>
+      <c r="C6">
+        <v>0.18983970191006611</v>
+      </c>
+      <c r="D6">
+        <v>3.2763876597542041e-09</v>
+      </c>
+      <c r="E6">
+        <v>1.7473742446152569e-13</v>
+      </c>
+      <c r="F6">
+        <v>2.27253663295994e-07</v>
+      </c>
+      <c r="G6">
+        <v>0.096405908449837499</v>
+      </c>
+      <c r="H6">
+        <v>1.7473742446152569e-13</v>
+      </c>
+      <c r="I6">
+        <v>1.7473742446152569e-13</v>
+      </c>
+      <c r="J6">
+        <v>1.7473742446152569e-13</v>
+      </c>
+      <c r="K6">
+        <v>1.7473742446152561e-13</v>
+      </c>
+      <c r="L6">
+        <v>0.00088473299842724523</v>
+      </c>
+      <c r="M6">
+        <v>0.69699512620155324</v>
+      </c>
+      <c r="N6">
+        <v>0.015823039957968337</v>
+      </c>
+      <c r="O6">
+        <v>1.7473742446152556e-13</v>
+      </c>
+      <c r="P6">
+        <v>1.7473742446152556e-13</v>
+      </c>
+      <c r="Q6">
+        <v>1.7473742446152556e-13</v>
+      </c>
+      <c r="R6">
+        <v>1.7473742446152556e-13</v>
+      </c>
+      <c r="S6">
+        <v>1.7473742446152561e-13</v>
+      </c>
+      <c r="T6">
+        <v>1.7473742446152561e-13</v>
+      </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7">
+        <v>0.0001693531682311793</v>
+      </c>
+      <c r="C7">
+        <v>0.65909552814835826</v>
+      </c>
+      <c r="D7">
+        <v>2.7032285526149994e-12</v>
+      </c>
+      <c r="E7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="F7">
+        <v>0.00016884294424196101</v>
+      </c>
+      <c r="G7">
+        <v>0.0070026610050860404</v>
+      </c>
+      <c r="H7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="K7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="L7">
+        <v>1.5817432359412002e-09</v>
+      </c>
+      <c r="M7">
+        <v>0.03763499782636863</v>
+      </c>
+      <c r="N7">
+        <v>0.29592861532302245</v>
+      </c>
+      <c r="O7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="P7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="Q7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="R7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="S7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="T7">
+        <v>2.2267324697506655e-14</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8">
+        <v>0.0071772533399816624</v>
+      </c>
+      <c r="C8">
+        <v>0.38223165228019429</v>
+      </c>
+      <c r="D8">
+        <v>1.0140409941067448e-08</v>
+      </c>
+      <c r="E8">
+        <v>7.1846691159038385e-14</v>
+      </c>
+      <c r="F8">
+        <v>4.1574049279371568e-08</v>
+      </c>
+      <c r="G8">
+        <v>0.078978628916461596</v>
+      </c>
+      <c r="H8">
+        <v>7.1846691159038461e-14</v>
+      </c>
+      <c r="I8">
+        <v>7.1846691159038461e-14</v>
+      </c>
+      <c r="J8">
+        <v>7.1846691159038461e-14</v>
+      </c>
+      <c r="K8">
+        <v>7.1846691159038512e-14</v>
+      </c>
+      <c r="L8">
+        <v>3.5864128224927125e-06</v>
+      </c>
+      <c r="M8">
+        <v>0.45827885314527311</v>
+      </c>
+      <c r="N8">
+        <v>0.073329974190017327</v>
+      </c>
+      <c r="O8">
+        <v>7.1846691159038587e-14</v>
+      </c>
+      <c r="P8">
+        <v>7.1846691159038587e-14</v>
+      </c>
+      <c r="Q8">
+        <v>7.1846691159038587e-14</v>
+      </c>
+      <c r="R8">
+        <v>7.1846691159038587e-14</v>
+      </c>
+      <c r="S8">
+        <v>7.1846691159038486e-14</v>
+      </c>
+      <c r="T8">
+        <v>7.1846691159038474e-14</v>
+      </c>
+      <c r="U8">
+        <v>12</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9">
+        <v>0.45712826281781532</v>
+      </c>
+      <c r="C9">
+        <v>0.26234150186131217</v>
+      </c>
+      <c r="D9">
+        <v>3.3011571194439601e-11</v>
+      </c>
+      <c r="E9">
+        <v>4.5508586849746303e-14</v>
+      </c>
+      <c r="F9">
+        <v>2.1307718601346659e-06</v>
+      </c>
+      <c r="G9">
+        <v>0.036323903414012308</v>
+      </c>
+      <c r="H9">
+        <v>4.5508586849746309e-14</v>
+      </c>
+      <c r="I9">
+        <v>4.5508586849746309e-14</v>
+      </c>
+      <c r="J9">
+        <v>4.5508586849746309e-14</v>
+      </c>
+      <c r="K9">
+        <v>4.5508586849746303e-14</v>
+      </c>
+      <c r="L9">
+        <v>2.7870699119394216e-06</v>
+      </c>
+      <c r="M9">
+        <v>0.23896152604827137</v>
+      </c>
+      <c r="N9">
+        <v>0.0052398879833047661</v>
+      </c>
+      <c r="O9">
+        <v>4.5508586849746479e-14</v>
+      </c>
+      <c r="P9">
+        <v>4.5508586849746479e-14</v>
+      </c>
+      <c r="Q9">
+        <v>4.5508586849746479e-14</v>
+      </c>
+      <c r="R9">
+        <v>4.5508586849746479e-14</v>
+      </c>
+      <c r="S9">
+        <v>4.5508586849746498e-14</v>
+      </c>
+      <c r="T9">
+        <v>4.5508586849746492e-14</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10">
+        <v>0.00052804104019234601</v>
+      </c>
+      <c r="C10">
+        <v>0.77346171808447339</v>
+      </c>
+      <c r="D10">
+        <v>2.8988312687970177e-08</v>
+      </c>
+      <c r="E10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="F10">
+        <v>8.142724131399652e-11</v>
+      </c>
+      <c r="G10">
+        <v>0.012622861407998807</v>
+      </c>
+      <c r="H10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="K10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="L10">
+        <v>9.0345598630702805e-06</v>
+      </c>
+      <c r="M10">
+        <v>0.2128224081975158</v>
+      </c>
+      <c r="N10">
+        <v>0.00055590763997227343</v>
+      </c>
+      <c r="O10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="P10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="Q10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="R10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="S10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="T10">
+        <v>2.2209541788642989e-14</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11">
+        <v>0.028957615191937135</v>
+      </c>
+      <c r="C11">
+        <v>0.41814667029036962</v>
+      </c>
+      <c r="D11">
+        <v>2.7114900282832165e-05</v>
+      </c>
+      <c r="E11">
+        <v>1.8630724142234586e-13</v>
+      </c>
+      <c r="F11">
+        <v>6.7925746364461862e-10</v>
+      </c>
+      <c r="G11">
+        <v>0.11256123449653897</v>
+      </c>
+      <c r="H11">
+        <v>1.8630724142234601e-13</v>
+      </c>
+      <c r="I11">
+        <v>1.8630724142234598e-13</v>
+      </c>
+      <c r="J11">
+        <v>1.8630724142234598e-13</v>
+      </c>
+      <c r="K11">
+        <v>1.8630724142234596e-13</v>
+      </c>
+      <c r="L11">
+        <v>5.2759487220505288e-05</v>
+      </c>
+      <c r="M11">
+        <v>0.41670292495140415</v>
+      </c>
+      <c r="N11">
+        <v>0.023551680000940028</v>
+      </c>
+      <c r="O11">
+        <v>1.8630724142234593e-13</v>
+      </c>
+      <c r="P11">
+        <v>1.8630724142234593e-13</v>
+      </c>
+      <c r="Q11">
+        <v>1.8630724142234593e-13</v>
+      </c>
+      <c r="R11">
+        <v>1.8630724142234593e-13</v>
+      </c>
+      <c r="S11">
+        <v>1.8630724142234618e-13</v>
+      </c>
+      <c r="T11">
+        <v>1.8630724142234611e-13</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12">
+        <v>0.03510924902329525</v>
+      </c>
+      <c r="C12">
+        <v>0.54429461033479754</v>
+      </c>
+      <c r="D12">
+        <v>1.9227674128622875e-09</v>
+      </c>
+      <c r="E12">
+        <v>1.1518743847277273e-13</v>
+      </c>
+      <c r="F12">
+        <v>0.19279499724066645</v>
+      </c>
+      <c r="G12">
+        <v>0.01445598753699863</v>
+      </c>
+      <c r="H12">
+        <v>1.1518743847277273e-13</v>
+      </c>
+      <c r="I12">
+        <v>1.1518743847277273e-13</v>
+      </c>
+      <c r="J12">
+        <v>1.1518743847277273e-13</v>
+      </c>
+      <c r="K12">
+        <v>1.1518743847277275e-13</v>
+      </c>
+      <c r="L12">
+        <v>6.8767533364371158e-12</v>
+      </c>
+      <c r="M12">
+        <v>0.11575806605769941</v>
+      </c>
+      <c r="N12">
+        <v>0.097587087875631875</v>
+      </c>
+      <c r="O12">
+        <v>1.1518743847277189e-13</v>
+      </c>
+      <c r="P12">
+        <v>1.1518743847277205e-13</v>
+      </c>
+      <c r="Q12">
+        <v>1.1518743847277205e-13</v>
+      </c>
+      <c r="R12">
+        <v>1.1518743847277205e-13</v>
+      </c>
+      <c r="S12">
+        <v>1.1518743847277189e-13</v>
+      </c>
+      <c r="T12">
+        <v>1.1518743847277189e-13</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13">
+        <v>0.002020033279240792</v>
+      </c>
+      <c r="C13">
+        <v>0.37897766300515945</v>
+      </c>
+      <c r="D13">
+        <v>9.1373746219896861e-11</v>
+      </c>
+      <c r="E13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.5834754718523144e-05</v>
+      </c>
+      <c r="G13">
+        <v>0.050737530120838939</v>
+      </c>
+      <c r="H13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="I13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="J13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="K13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="L13">
+        <v>3.880599238906114e-09</v>
+      </c>
+      <c r="M13">
+        <v>0.040550209444018409</v>
+      </c>
+      <c r="N13">
+        <v>0.52768872542344003</v>
+      </c>
+      <c r="O13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="P13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="Q13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="R13">
+        <v>5.5577798525203623e-14</v>
+      </c>
+      <c r="S13">
+        <v>5.5577798525203668e-14</v>
+      </c>
+      <c r="T13">
+        <v>5.5577798525203668e-14</v>
+      </c>
+      <c r="U13">
+        <v>13</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14">
+        <v>1.035574272802955e-13</v>
+      </c>
+      <c r="C14">
+        <v>1.035574272802955e-13</v>
+      </c>
+      <c r="D14">
+        <v>0.99221038320795774</v>
+      </c>
+      <c r="E14">
+        <v>1.0355742728029535e-13</v>
+      </c>
+      <c r="F14">
+        <v>0.007778422498531572</v>
+      </c>
+      <c r="G14">
+        <v>7.0399981554100378e-07</v>
+      </c>
+      <c r="H14">
+        <v>1.0355742728027298e-13</v>
+      </c>
+      <c r="I14">
+        <v>1.0355742728027298e-13</v>
+      </c>
+      <c r="J14">
+        <v>1.0355742728027298e-13</v>
+      </c>
+      <c r="K14">
+        <v>1.0355742728027317e-13</v>
+      </c>
+      <c r="L14">
+        <v>9.8274439455730955e-06</v>
+      </c>
+      <c r="M14">
+        <v>6.6284829909114425e-07</v>
+      </c>
+      <c r="N14">
+        <v>1.0355742728029511e-13</v>
+      </c>
+      <c r="O14">
+        <v>1.0355742728029535e-13</v>
+      </c>
+      <c r="P14">
+        <v>1.0355742728029535e-13</v>
+      </c>
+      <c r="Q14">
+        <v>1.0355742728029535e-13</v>
+      </c>
+      <c r="R14">
+        <v>1.0355742728029535e-13</v>
+      </c>
+      <c r="S14">
+        <v>1.0355742728029472e-13</v>
+      </c>
+      <c r="T14">
+        <v>1.0355742728029406e-13</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15">
+        <v>3.1330901014778237e-13</v>
+      </c>
+      <c r="C15">
+        <v>3.1330901014778237e-13</v>
+      </c>
+      <c r="D15">
+        <v>0.99155207238226495</v>
+      </c>
+      <c r="E15">
+        <v>3.1330901014778237e-13</v>
+      </c>
+      <c r="F15">
+        <v>0.0084397428552031705</v>
+      </c>
+      <c r="G15">
+        <v>7.7094737814958879e-06</v>
+      </c>
+      <c r="H15">
+        <v>3.1330901014778191e-13</v>
+      </c>
+      <c r="I15">
+        <v>3.1330901014778111e-13</v>
+      </c>
+      <c r="J15">
+        <v>3.1330901014778111e-13</v>
+      </c>
+      <c r="K15">
+        <v>3.1330901014778186e-13</v>
+      </c>
+      <c r="L15">
+        <v>4.2494086549418163e-07</v>
+      </c>
+      <c r="M15">
+        <v>5.0343499077069999e-08</v>
+      </c>
+      <c r="N15">
+        <v>3.1330901014791268e-13</v>
+      </c>
+      <c r="O15">
+        <v>3.1330901014784861e-13</v>
+      </c>
+      <c r="P15">
+        <v>3.1330901014784861e-13</v>
+      </c>
+      <c r="Q15">
+        <v>3.1330901014784861e-13</v>
+      </c>
+      <c r="R15">
+        <v>3.1330901014784861e-13</v>
+      </c>
+      <c r="S15">
+        <v>3.1330901014784507e-13</v>
+      </c>
+      <c r="T15">
+        <v>3.1330901014784497e-13</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16">
+        <v>1.0584450236482433e-13</v>
+      </c>
+      <c r="C16">
+        <v>1.0584450236482433e-13</v>
+      </c>
+      <c r="D16">
+        <v>0.8200161322682531</v>
+      </c>
+      <c r="E16">
+        <v>1.0584450236482433e-13</v>
+      </c>
+      <c r="F16">
+        <v>0.17998256355178111</v>
+      </c>
+      <c r="G16">
+        <v>7.5638189664557976e-07</v>
+      </c>
+      <c r="H16">
+        <v>1.0584450236482433e-13</v>
+      </c>
+      <c r="I16">
+        <v>1.0584450236482427e-13</v>
+      </c>
+      <c r="J16">
+        <v>1.0584450236482427e-13</v>
+      </c>
+      <c r="K16">
+        <v>1.0584450236482449e-13</v>
+      </c>
+      <c r="L16">
+        <v>7.8177929745542591e-10</v>
+      </c>
+      <c r="M16">
+        <v>5.4701480831376752e-07</v>
+      </c>
+      <c r="N16">
+        <v>1.0584450236482449e-13</v>
+      </c>
+      <c r="O16">
+        <v>1.0584450236482452e-13</v>
+      </c>
+      <c r="P16">
+        <v>1.0584450236482452e-13</v>
+      </c>
+      <c r="Q16">
+        <v>1.0584450236482452e-13</v>
+      </c>
+      <c r="R16">
+        <v>1.0584450236482452e-13</v>
+      </c>
+      <c r="S16">
+        <v>1.0584450236482442e-13</v>
+      </c>
+      <c r="T16">
+        <v>1.0584450236482438e-13</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17">
+        <v>4.1110567161014608e-14</v>
+      </c>
+      <c r="C17">
+        <v>4.1110567161014608e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.99953253655861873</v>
+      </c>
+      <c r="E17">
+        <v>4.1110567161014595e-14</v>
+      </c>
+      <c r="F17">
+        <v>0.00039179432849898723</v>
+      </c>
+      <c r="G17">
+        <v>7.5653924460850254e-05</v>
+      </c>
+      <c r="H17">
+        <v>4.1110567161014601e-14</v>
+      </c>
+      <c r="I17">
+        <v>4.1110567161014418e-14</v>
+      </c>
+      <c r="J17">
+        <v>4.1110567161014418e-14</v>
+      </c>
+      <c r="K17">
+        <v>4.1110567161014809e-14</v>
+      </c>
+      <c r="L17">
+        <v>1.2713418969500093e-08</v>
+      </c>
+      <c r="M17">
+        <v>2.4724758336138987e-09</v>
+      </c>
+      <c r="N17">
+        <v>1.9924381234958315e-12</v>
+      </c>
+      <c r="O17">
+        <v>4.1110567161014614e-14</v>
+      </c>
+      <c r="P17">
+        <v>4.1110567161014803e-14</v>
+      </c>
+      <c r="Q17">
+        <v>4.1110567161014803e-14</v>
+      </c>
+      <c r="R17">
+        <v>4.1110567161014803e-14</v>
+      </c>
+      <c r="S17">
+        <v>4.111056716101474e-14</v>
+      </c>
+      <c r="T17">
+        <v>4.1110567161014595e-14</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="C18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.55255768231829705</v>
+      </c>
+      <c r="E18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="F18">
+        <v>0.44743974443785217</v>
+      </c>
+      <c r="G18">
+        <v>5.5368652610266658e-08</v>
+      </c>
+      <c r="H18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="K18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="L18">
+        <v>7.2996962235204787e-09</v>
+      </c>
+      <c r="M18">
+        <v>2.5105751863773144e-06</v>
+      </c>
+      <c r="N18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="O18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="P18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="Q18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="R18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="S18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="T18">
+        <v>2.2485368887709722e-14</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B19">
+        <v>2.6255399940776474e-09</v>
+      </c>
+      <c r="C19">
+        <v>2.6255399940776474e-09</v>
+      </c>
+      <c r="D19">
+        <v>0.54080466158247986</v>
+      </c>
+      <c r="E19">
+        <v>2.6255399940776428e-09</v>
+      </c>
+      <c r="F19">
+        <v>0.36857057326014953</v>
+      </c>
+      <c r="G19">
+        <v>0.090333245905421661</v>
+      </c>
+      <c r="H19">
+        <v>2.6255399940774828e-09</v>
+      </c>
+      <c r="I19">
+        <v>2.6255399940774828e-09</v>
+      </c>
+      <c r="J19">
+        <v>2.6255399940774828e-09</v>
+      </c>
+      <c r="K19">
+        <v>2.6255399940774861e-09</v>
+      </c>
+      <c r="L19">
+        <v>0.00016924020808535304</v>
+      </c>
+      <c r="M19">
+        <v>0.00012224228630386281</v>
+      </c>
+      <c r="N19">
+        <v>2.6255399940774836e-09</v>
+      </c>
+      <c r="O19">
+        <v>2.6255399940774944e-09</v>
+      </c>
+      <c r="P19">
+        <v>2.6255399940774944e-09</v>
+      </c>
+      <c r="Q19">
+        <v>2.6255399940774944e-09</v>
+      </c>
+      <c r="R19">
+        <v>2.6255399940774944e-09</v>
+      </c>
+      <c r="S19">
+        <v>2.6255399940774766e-09</v>
+      </c>
+      <c r="T19">
+        <v>2.6255399940774766e-09</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20">
+        <v>0.00063356120614448683</v>
+      </c>
+      <c r="C20">
+        <v>0.00063356120614448683</v>
+      </c>
+      <c r="D20">
+        <v>0.98859549138292824</v>
+      </c>
+      <c r="E20">
+        <v>0.00063356120614448661</v>
+      </c>
+      <c r="F20">
+        <v>0.00063362006858760206</v>
+      </c>
+      <c r="G20">
+        <v>0.00063357458084976784</v>
+      </c>
+      <c r="H20">
+        <v>0.00063356120614448228</v>
+      </c>
+      <c r="I20">
+        <v>0.00063356120614448054</v>
+      </c>
+      <c r="J20">
+        <v>0.00063356120614448054</v>
+      </c>
+      <c r="K20">
+        <v>0.00063356120614448412</v>
+      </c>
+      <c r="L20">
+        <v>0.00063389480916267304</v>
+      </c>
+      <c r="M20">
+        <v>0.00063356227039314044</v>
+      </c>
+      <c r="N20">
+        <v>0.00063356120820040975</v>
+      </c>
+      <c r="O20">
+        <v>0.00063356120614448726</v>
+      </c>
+      <c r="P20">
+        <v>0.00063356120614448846</v>
+      </c>
+      <c r="Q20">
+        <v>0.00063356120614448846</v>
+      </c>
+      <c r="R20">
+        <v>0.00063356120614448846</v>
+      </c>
+      <c r="S20">
+        <v>0.00063356120614448575</v>
+      </c>
+      <c r="T20">
+        <v>0.00063356120614448564</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21">
+        <v>4.1812026221406765e-14</v>
+      </c>
+      <c r="C21">
+        <v>4.1812026221406765e-14</v>
+      </c>
+      <c r="D21">
+        <v>0.9965237331440876</v>
+      </c>
+      <c r="E21">
+        <v>4.1812026221406771e-14</v>
+      </c>
+      <c r="F21">
+        <v>0.0034564948341467461</v>
+      </c>
+      <c r="G21">
+        <v>1.9753956560990874e-05</v>
+      </c>
+      <c r="H21">
+        <v>4.1812026221406538e-14</v>
+      </c>
+      <c r="I21">
+        <v>4.1812026221406323e-14</v>
+      </c>
+      <c r="J21">
+        <v>4.1812026221406323e-14</v>
+      </c>
+      <c r="K21">
+        <v>4.1812026221406746e-14</v>
+      </c>
+      <c r="L21">
+        <v>1.6152133998423461e-08</v>
+      </c>
+      <c r="M21">
+        <v>1.9124847479196625e-09</v>
+      </c>
+      <c r="N21">
+        <v>4.1812026221459057e-14</v>
+      </c>
+      <c r="O21">
+        <v>4.1812026221406942e-14</v>
+      </c>
+      <c r="P21">
+        <v>4.1812026221406942e-14</v>
+      </c>
+      <c r="Q21">
+        <v>4.1812026221406942e-14</v>
+      </c>
+      <c r="R21">
+        <v>4.1812026221406942e-14</v>
+      </c>
+      <c r="S21">
+        <v>4.1812026221406714e-14</v>
+      </c>
+      <c r="T21">
+        <v>4.1812026221406512e-14</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22">
+        <v>2.2252574997473796e-14</v>
+      </c>
+      <c r="C22">
+        <v>2.2252574997473812e-14</v>
+      </c>
+      <c r="D22">
+        <v>0.9991424026177731</v>
+      </c>
+      <c r="E22">
+        <v>2.2252574997473796e-14</v>
+      </c>
+      <c r="F22">
+        <v>0.00034391517760604622</v>
+      </c>
+      <c r="G22">
+        <v>0.00051360225209368441</v>
+      </c>
+      <c r="H22">
+        <v>2.2252574997473796e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.225257499747379e-14</v>
+      </c>
+      <c r="J22">
+        <v>2.225257499747379e-14</v>
+      </c>
+      <c r="K22">
+        <v>2.225257499747379e-14</v>
+      </c>
+      <c r="L22">
+        <v>2.3584795518953836e-08</v>
+      </c>
+      <c r="M22">
+        <v>5.6060674135748435e-08</v>
+      </c>
+      <c r="N22">
+        <v>3.0676869899337193e-10</v>
+      </c>
+      <c r="O22">
+        <v>2.2252574997473783e-14</v>
+      </c>
+      <c r="P22">
+        <v>2.2252574997473783e-14</v>
+      </c>
+      <c r="Q22">
+        <v>2.2252574997473783e-14</v>
+      </c>
+      <c r="R22">
+        <v>2.2252574997473783e-14</v>
+      </c>
+      <c r="S22">
+        <v>2.225257499747379e-14</v>
+      </c>
+      <c r="T22">
+        <v>2.225257499747379e-14</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23">
+        <v>0.00070328500737365084</v>
+      </c>
+      <c r="C23">
+        <v>0.00070329183288643429</v>
+      </c>
+      <c r="D23">
+        <v>0.987340591701236</v>
+      </c>
+      <c r="E23">
+        <v>0.00070328500737365355</v>
+      </c>
+      <c r="F23">
+        <v>0.00070332945255810225</v>
+      </c>
+      <c r="G23">
+        <v>0.0007033514482298938</v>
+      </c>
+      <c r="H23">
+        <v>0.000703285007373649</v>
+      </c>
+      <c r="I23">
+        <v>0.000703285007373649</v>
+      </c>
+      <c r="J23">
+        <v>0.000703285007373649</v>
+      </c>
+      <c r="K23">
+        <v>0.00070328500737364889</v>
+      </c>
+      <c r="L23">
+        <v>0.00070344208402385762</v>
+      </c>
+      <c r="M23">
+        <v>0.00070328500996933558</v>
+      </c>
+      <c r="N23">
+        <v>0.0007032883826123919</v>
+      </c>
+      <c r="O23">
+        <v>0.00070328500737364943</v>
+      </c>
+      <c r="P23">
+        <v>0.00070328500737365204</v>
+      </c>
+      <c r="Q23">
+        <v>0.00070328500737365204</v>
+      </c>
+      <c r="R23">
+        <v>0.00070328500737365204</v>
+      </c>
+      <c r="S23">
+        <v>0.00070328500737365399</v>
+      </c>
+      <c r="T23">
+        <v>0.0007032850073736503</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.8791599347953742e-10</v>
+      </c>
+      <c r="D24">
+        <v>0.0011307513467064252</v>
+      </c>
+      <c r="E24">
+        <v>0.9988692480677015</v>
+      </c>
+      <c r="F24">
+        <v>9.7605632940739012e-12</v>
+      </c>
+      <c r="G24">
+        <v>2.4723648437945786e-10</v>
+      </c>
+      <c r="H24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="I24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="J24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="K24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="L24">
+        <v>1.7586784252649993e-12</v>
+      </c>
+      <c r="M24">
+        <v>2.3123743375352024e-11</v>
+      </c>
+      <c r="N24">
+        <v>1.555237652573268e-11</v>
+      </c>
+      <c r="O24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="P24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="Q24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="R24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="S24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="T24">
+        <v>2.2203143445202605e-14</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="C25">
+        <v>4.2508757930476326e-09</v>
+      </c>
+      <c r="D25">
+        <v>0.0056766356851991641</v>
+      </c>
+      <c r="E25">
+        <v>0.99432334814419576</v>
+      </c>
+      <c r="F25">
+        <v>4.7269617584030744e-14</v>
+      </c>
+      <c r="G25">
+        <v>2.400969593919448e-09</v>
+      </c>
+      <c r="H25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="I25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="J25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="K25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="L25">
+        <v>2.3014978880240947e-12</v>
+      </c>
+      <c r="M25">
+        <v>1.1701804718832549e-10</v>
+      </c>
+      <c r="N25">
+        <v>9.3991484416139061e-09</v>
+      </c>
+      <c r="O25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="P25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="Q25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="R25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="S25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="T25">
+        <v>2.2201002895016777e-14</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="C26">
+        <v>2.6748745619615814e-11</v>
+      </c>
+      <c r="D26">
+        <v>0.0003806912302971615</v>
+      </c>
+      <c r="E26">
+        <v>0.99961929956189621</v>
+      </c>
+      <c r="F26">
+        <v>7.9340999660323235e-11</v>
+      </c>
+      <c r="G26">
+        <v>9.0777439713359432e-09</v>
+      </c>
+      <c r="H26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="I26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="J26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="K26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="L26">
+        <v>8.0981061000544139e-13</v>
+      </c>
+      <c r="M26">
+        <v>2.0929818425016162e-11</v>
+      </c>
+      <c r="N26">
+        <v>1.9891736062790337e-12</v>
+      </c>
+      <c r="O26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="P26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="Q26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="R26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="S26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="T26">
+        <v>2.2204016084954841e-14</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="C27">
+        <v>1.8570610225437749e-08</v>
+      </c>
+      <c r="D27">
+        <v>0.004006040433355099</v>
+      </c>
+      <c r="E27">
+        <v>0.99599369231778923</v>
+      </c>
+      <c r="F27">
+        <v>4.5095904436072543e-14</v>
+      </c>
+      <c r="G27">
+        <v>2.6955420586835764e-09</v>
+      </c>
+      <c r="H27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="J27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="K27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="L27">
+        <v>2.1818999239893741e-12</v>
+      </c>
+      <c r="M27">
+        <v>1.0553096886564405e-09</v>
+      </c>
+      <c r="N27">
+        <v>2.4492492252372795e-07</v>
+      </c>
+      <c r="O27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="P27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="Q27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="R27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="S27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="T27">
+        <v>2.220099012397302e-14</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="C28">
+        <v>1.7001019620564876e-09</v>
+      </c>
+      <c r="D28">
+        <v>0.046661444964602609</v>
+      </c>
+      <c r="E28">
+        <v>0.95333846811172251</v>
+      </c>
+      <c r="F28">
+        <v>5.9003078861033777e-11</v>
+      </c>
+      <c r="G28">
+        <v>8.5107974267048361e-08</v>
+      </c>
+      <c r="H28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="J28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="K28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="L28">
+        <v>2.5977626442184492e-11</v>
+      </c>
+      <c r="M28">
+        <v>1.9642826162408223e-13</v>
+      </c>
+      <c r="N28">
+        <v>3.0177032129525225e-11</v>
+      </c>
+      <c r="O28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="P28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="Q28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="R28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="S28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="T28">
+        <v>2.2201283927293633e-14</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="C29">
+        <v>1.362419639562661e-06</v>
+      </c>
+      <c r="D29">
+        <v>0.001574975569264594</v>
+      </c>
+      <c r="E29">
+        <v>0.99842359477170994</v>
+      </c>
+      <c r="F29">
+        <v>3.2813626366609688e-13</v>
+      </c>
+      <c r="G29">
+        <v>1.8503615435261881e-09</v>
+      </c>
+      <c r="H29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="J29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="K29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="L29">
+        <v>2.2338415745525863e-11</v>
+      </c>
+      <c r="M29">
+        <v>3.3355716584231615e-11</v>
+      </c>
+      <c r="N29">
+        <v>6.5332757670802514e-08</v>
+      </c>
+      <c r="O29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="P29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="Q29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="R29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="S29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="T29">
+        <v>2.2202626792815717e-14</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="C30">
+        <v>4.2594288699578408e-06</v>
+      </c>
+      <c r="D30">
+        <v>0.00090428866275037362</v>
+      </c>
+      <c r="E30">
+        <v>0.9990912244723642</v>
+      </c>
+      <c r="F30">
+        <v>7.6679973821981751e-12</v>
+      </c>
+      <c r="G30">
+        <v>7.8418809235695419e-08</v>
+      </c>
+      <c r="H30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="J30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="K30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="L30">
+        <v>1.8036699459394803e-12</v>
+      </c>
+      <c r="M30">
+        <v>1.2429185019516538e-13</v>
+      </c>
+      <c r="N30">
+        <v>1.4900736595298719e-07</v>
+      </c>
+      <c r="O30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="P30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="Q30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="R30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="S30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="T30">
+        <v>2.220340129695546e-14</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="C31">
+        <v>2.5555061561506772e-07</v>
+      </c>
+      <c r="D31">
+        <v>0.029013259223375103</v>
+      </c>
+      <c r="E31">
+        <v>0.97098643177971133</v>
+      </c>
+      <c r="F31">
+        <v>1.1929868528306936e-12</v>
+      </c>
+      <c r="G31">
+        <v>3.0347880150349966e-08</v>
+      </c>
+      <c r="H31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="K31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="L31">
+        <v>3.8813288690087605e-10</v>
+      </c>
+      <c r="M31">
+        <v>1.5593833922245187e-12</v>
+      </c>
+      <c r="N31">
+        <v>2.2707288085470447e-08</v>
+      </c>
+      <c r="O31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="P31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="Q31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="R31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="S31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="T31">
+        <v>2.2201173517600922e-14</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B32">
+        <v>7.6467718492555778e-12</v>
+      </c>
+      <c r="C32">
+        <v>7.6467718492555778e-12</v>
+      </c>
+      <c r="D32">
+        <v>0.63603387401364497</v>
+      </c>
+      <c r="E32">
+        <v>7.6467718492555601e-12</v>
+      </c>
+      <c r="F32">
+        <v>0.35129775817767017</v>
+      </c>
+      <c r="G32">
+        <v>0.012666273032165238</v>
+      </c>
+      <c r="H32">
+        <v>7.6467718492555762e-12</v>
+      </c>
+      <c r="I32">
+        <v>7.6467718492555568e-12</v>
+      </c>
+      <c r="J32">
+        <v>7.6467718492555568e-12</v>
+      </c>
+      <c r="K32">
+        <v>7.646771849255573e-12</v>
+      </c>
+      <c r="L32">
+        <v>8.3085002127883724e-08</v>
+      </c>
+      <c r="M32">
+        <v>2.011584463062744e-06</v>
+      </c>
+      <c r="N32">
+        <v>7.646771849255573e-12</v>
+      </c>
+      <c r="O32">
+        <v>7.6467718492555762e-12</v>
+      </c>
+      <c r="P32">
+        <v>7.6467718492555762e-12</v>
+      </c>
+      <c r="Q32">
+        <v>7.6467718492555762e-12</v>
+      </c>
+      <c r="R32">
+        <v>7.6467718492555762e-12</v>
+      </c>
+      <c r="S32">
+        <v>7.6467718492555665e-12</v>
+      </c>
+      <c r="T32">
+        <v>7.6467718492555568e-12</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B33">
+        <v>3.6930290586899556e-14</v>
+      </c>
+      <c r="C33">
+        <v>3.6930290586899556e-14</v>
+      </c>
+      <c r="D33">
+        <v>0.11280770473804366</v>
+      </c>
+      <c r="E33">
+        <v>3.6930290586899556e-14</v>
+      </c>
+      <c r="F33">
+        <v>0.8871900665471758</v>
+      </c>
+      <c r="G33">
+        <v>2.2099790360243405e-06</v>
+      </c>
+      <c r="H33">
+        <v>3.6930290586898571e-14</v>
+      </c>
+      <c r="I33">
+        <v>3.6930290586898571e-14</v>
+      </c>
+      <c r="J33">
+        <v>3.6930290586898571e-14</v>
+      </c>
+      <c r="K33">
+        <v>3.6930290586898565e-14</v>
+      </c>
+      <c r="L33">
+        <v>6.194298813908711e-10</v>
+      </c>
+      <c r="M33">
+        <v>1.8115797167535384e-08</v>
+      </c>
+      <c r="N33">
+        <v>3.6930290586898552e-14</v>
+      </c>
+      <c r="O33">
+        <v>3.6930290586898584e-14</v>
+      </c>
+      <c r="P33">
+        <v>3.6930290586898584e-14</v>
+      </c>
+      <c r="Q33">
+        <v>3.6930290586898584e-14</v>
+      </c>
+      <c r="R33">
+        <v>3.6930290586898584e-14</v>
+      </c>
+      <c r="S33">
+        <v>3.6930290586898577e-14</v>
+      </c>
+      <c r="T33">
+        <v>3.6930290586898577e-14</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="D34">
+        <v>0.062472922970667193</v>
+      </c>
+      <c r="E34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="F34">
+        <v>0.93752665557727854</v>
+      </c>
+      <c r="G34">
+        <v>2.0260630578059412e-07</v>
+      </c>
+      <c r="H34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="I34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="J34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="K34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="L34">
+        <v>2.9479535611713825e-08</v>
+      </c>
+      <c r="M34">
+        <v>1.8936590211215817e-07</v>
+      </c>
+      <c r="N34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="O34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="P34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="Q34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="R34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="S34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="T34">
+        <v>2.220142343235096e-14</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="C35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="D35">
+        <v>0.00038761847238136964</v>
+      </c>
+      <c r="E35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="F35">
+        <v>0.96193679166074808</v>
+      </c>
+      <c r="G35">
+        <v>7.5229651843014356e-08</v>
+      </c>
+      <c r="H35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="I35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="J35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="K35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="L35">
+        <v>0.037522295813888704</v>
+      </c>
+      <c r="M35">
+        <v>0.00015321882301930833</v>
+      </c>
+      <c r="N35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="O35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="P35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="Q35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="R35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="S35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="T35">
+        <v>2.2201285204879021e-14</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B36">
+        <v>2.1833221113143463e-10</v>
+      </c>
+      <c r="C36">
+        <v>2.1833221113143463e-10</v>
+      </c>
+      <c r="D36">
+        <v>0.63614592067953957</v>
+      </c>
+      <c r="E36">
+        <v>2.1833221113143455e-10</v>
+      </c>
+      <c r="F36">
+        <v>0.29751928595347077</v>
+      </c>
+      <c r="G36">
+        <v>0.066215252246864545</v>
+      </c>
+      <c r="H36">
+        <v>2.1833221113143455e-10</v>
+      </c>
+      <c r="I36">
+        <v>2.1833221113143455e-10</v>
+      </c>
+      <c r="J36">
+        <v>2.1833221113143455e-10</v>
+      </c>
+      <c r="K36">
+        <v>2.1833221113143375e-10</v>
+      </c>
+      <c r="L36">
+        <v>4.5033267225456431e-07</v>
+      </c>
+      <c r="M36">
+        <v>0.00011908773080187562</v>
+      </c>
+      <c r="N36">
+        <v>2.183322111314344e-10</v>
+      </c>
+      <c r="O36">
+        <v>2.183322111314344e-10</v>
+      </c>
+      <c r="P36">
+        <v>2.183322111314344e-10</v>
+      </c>
+      <c r="Q36">
+        <v>2.183322111314344e-10</v>
+      </c>
+      <c r="R36">
+        <v>2.183322111314344e-10</v>
+      </c>
+      <c r="S36">
+        <v>2.1833221113143391e-10</v>
+      </c>
+      <c r="T36">
+        <v>2.1833221113143391e-10</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B37">
+        <v>3.0923312814508413e-14</v>
+      </c>
+      <c r="C37">
+        <v>7.4942825583163571e-09</v>
+      </c>
+      <c r="D37">
+        <v>1.4570877266284433e-08</v>
+      </c>
+      <c r="E37">
+        <v>3.0923312814508451e-14</v>
+      </c>
+      <c r="F37">
+        <v>4.1203806830763132e-13</v>
+      </c>
+      <c r="G37">
+        <v>0.96867321091169856</v>
+      </c>
+      <c r="H37">
+        <v>3.0923312814508426e-14</v>
+      </c>
+      <c r="I37">
+        <v>3.0923312814508426e-14</v>
+      </c>
+      <c r="J37">
+        <v>3.0923312814508426e-14</v>
+      </c>
+      <c r="K37">
+        <v>3.0923312814508439e-14</v>
+      </c>
+      <c r="L37">
+        <v>0.023045964485334681</v>
+      </c>
+      <c r="M37">
+        <v>0.0082808024343345756</v>
+      </c>
+      <c r="N37">
+        <v>1.026886726796003e-10</v>
+      </c>
+      <c r="O37">
+        <v>3.0923312814508426e-14</v>
+      </c>
+      <c r="P37">
+        <v>3.0923312814508527e-14</v>
+      </c>
+      <c r="Q37">
+        <v>3.0923312814508527e-14</v>
+      </c>
+      <c r="R37">
+        <v>3.0923312814508527e-14</v>
+      </c>
+      <c r="S37">
+        <v>3.0923312814508445e-14</v>
+      </c>
+      <c r="T37">
+        <v>3.0923312814508445e-14</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B38">
+        <v>9.5126757607050937e-14</v>
+      </c>
+      <c r="C38">
+        <v>4.699385510890309e-12</v>
+      </c>
+      <c r="D38">
+        <v>4.2605010870088071e-10</v>
+      </c>
+      <c r="E38">
+        <v>9.5126757607050698e-14</v>
+      </c>
+      <c r="F38">
+        <v>5.2992596431454134e-10</v>
+      </c>
+      <c r="G38">
+        <v>0.98735514934607382</v>
+      </c>
+      <c r="H38">
+        <v>9.5126757607051101e-14</v>
+      </c>
+      <c r="I38">
+        <v>9.5126757607050862e-14</v>
+      </c>
+      <c r="J38">
+        <v>9.5126757607050862e-14</v>
+      </c>
+      <c r="K38">
+        <v>9.5126757607051101e-14</v>
+      </c>
+      <c r="L38">
+        <v>0.010610513095098719</v>
+      </c>
+      <c r="M38">
+        <v>0.0020328924503271585</v>
+      </c>
+      <c r="N38">
+        <v>1.4441466829788021e-06</v>
+      </c>
+      <c r="O38">
+        <v>9.5126757607051026e-14</v>
+      </c>
+      <c r="P38">
+        <v>9.5126757607051253e-14</v>
+      </c>
+      <c r="Q38">
+        <v>9.5126757607051253e-14</v>
+      </c>
+      <c r="R38">
+        <v>9.5126757607051253e-14</v>
+      </c>
+      <c r="S38">
+        <v>9.5126757607051038e-14</v>
+      </c>
+      <c r="T38">
+        <v>9.5126757607051038e-14</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B39">
+        <v>3.6239202070494665e-11</v>
+      </c>
+      <c r="C39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="D39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="E39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="F39">
+        <v>0.0026926736277703691</v>
+      </c>
+      <c r="G39">
+        <v>4.1941057070359523e-05</v>
+      </c>
+      <c r="H39">
+        <v>0.99587587652504905</v>
+      </c>
+      <c r="I39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="J39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="K39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="L39">
+        <v>0.0013895056999931039</v>
+      </c>
+      <c r="M39">
+        <v>2.5588020560043301e-09</v>
+      </c>
+      <c r="N39">
+        <v>4.9480923760778002e-10</v>
+      </c>
+      <c r="O39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="P39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="Q39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="R39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="S39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="T39">
+        <v>2.2201390267724925e-14</v>
+      </c>
+      <c r="U39">
+        <v>7</v>
+      </c>
+      <c r="V39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="C40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="D40">
+        <v>1.1969511002830221e-10</v>
+      </c>
+      <c r="E40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="F40">
+        <v>0.020199238360798556</v>
+      </c>
+      <c r="G40">
+        <v>1.1636983966248874e-06</v>
+      </c>
+      <c r="H40">
+        <v>0.97900529541237769</v>
+      </c>
+      <c r="I40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="J40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="K40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="L40">
+        <v>0.00079429488182536953</v>
+      </c>
+      <c r="M40">
+        <v>7.5266180740692568e-09</v>
+      </c>
+      <c r="N40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="O40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="P40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="Q40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="R40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="S40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="T40">
+        <v>2.2200578149992857e-14</v>
+      </c>
+      <c r="U40">
+        <v>7</v>
+      </c>
+      <c r="V40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B41">
+        <v>7.2356238790768631e-07</v>
+      </c>
+      <c r="C41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="D41">
+        <v>6.6135310335643498e-14</v>
+      </c>
+      <c r="E41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="F41">
+        <v>0.0011636276026836057</v>
+      </c>
+      <c r="G41">
+        <v>0.0001032237759782744</v>
+      </c>
+      <c r="H41">
+        <v>0.99871466574668188</v>
+      </c>
+      <c r="I41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="J41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="K41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="L41">
+        <v>1.774361875715358e-05</v>
+      </c>
+      <c r="M41">
+        <v>4.0240792255836175e-09</v>
+      </c>
+      <c r="N41">
+        <v>1.1669121750027067e-08</v>
+      </c>
+      <c r="O41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="P41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="Q41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="R41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="S41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="T41">
+        <v>2.2202964081413228e-14</v>
+      </c>
+      <c r="U41">
+        <v>7</v>
+      </c>
+      <c r="V41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B42">
+        <v>1.3390523259191761e-09</v>
+      </c>
+      <c r="C42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="F42">
+        <v>0.00047651755987071265</v>
+      </c>
+      <c r="G42">
+        <v>0.00015124528752155053</v>
+      </c>
+      <c r="H42">
+        <v>0.99931491238494996</v>
+      </c>
+      <c r="I42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="J42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="K42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="L42">
+        <v>5.7279315784547869e-05</v>
+      </c>
+      <c r="M42">
+        <v>5.44777693268644e-09</v>
+      </c>
+      <c r="N42">
+        <v>3.8664777550822906e-08</v>
+      </c>
+      <c r="O42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="P42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="Q42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="R42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="S42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="T42">
+        <v>2.2203661481120719e-14</v>
+      </c>
+      <c r="U42">
+        <v>7</v>
+      </c>
+      <c r="V42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B43">
+        <v>1.16414581875593e-11</v>
+      </c>
+      <c r="C43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="E43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="F43">
+        <v>0.0061554037447014353</v>
+      </c>
+      <c r="G43">
+        <v>2.0020491713390743e-05</v>
+      </c>
+      <c r="H43">
+        <v>0.993765738387824</v>
+      </c>
+      <c r="I43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="J43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="K43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="L43">
+        <v>5.8831357039990326e-05</v>
+      </c>
+      <c r="M43">
+        <v>1.9621035177579965e-09</v>
+      </c>
+      <c r="N43">
+        <v>4.0447100051160957e-09</v>
+      </c>
+      <c r="O43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="P43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="Q43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="R43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="S43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="T43">
+        <v>2.2201054219260701e-14</v>
+      </c>
+      <c r="U43">
+        <v>7</v>
+      </c>
+      <c r="V43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B44">
+        <v>9.7714653654768109e-07</v>
+      </c>
+      <c r="C44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="F44">
+        <v>0.0009728415424743287</v>
+      </c>
+      <c r="G44">
+        <v>0.00033268047993545473</v>
+      </c>
+      <c r="H44">
+        <v>0.99868916640083116</v>
+      </c>
+      <c r="I44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="J44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="K44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="L44">
+        <v>2.0540700803390337e-06</v>
+      </c>
+      <c r="M44">
+        <v>8.3916348564739425e-09</v>
+      </c>
+      <c r="N44">
+        <v>2.2719682408221382e-06</v>
+      </c>
+      <c r="O44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="P44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="Q44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="R44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="S44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="T44">
+        <v>2.2202934511192322e-14</v>
+      </c>
+      <c r="U44">
+        <v>7</v>
+      </c>
+      <c r="V44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B45">
+        <v>3.9152197226461349e-06</v>
+      </c>
+      <c r="C45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="D45">
+        <v>9.0273339458168676e-13</v>
+      </c>
+      <c r="E45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="F45">
+        <v>0.00052698351204902196</v>
+      </c>
+      <c r="G45">
+        <v>7.6426160043544975e-05</v>
+      </c>
+      <c r="H45">
+        <v>0.99939247271294473</v>
+      </c>
+      <c r="I45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="J45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="K45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="L45">
+        <v>1.0636729970815758e-07</v>
+      </c>
+      <c r="M45">
+        <v>4.3349032520629089e-08</v>
+      </c>
+      <c r="N45">
+        <v>5.2677760843391321e-08</v>
+      </c>
+      <c r="O45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="P45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="Q45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="R45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="S45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="T45">
+        <v>2.2203751776199962e-14</v>
+      </c>
+      <c r="U45">
+        <v>7</v>
+      </c>
+      <c r="V45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B46">
+        <v>3.9731516836306506e-10</v>
+      </c>
+      <c r="C46">
+        <v>3.7305096836984562e-08</v>
+      </c>
+      <c r="D46">
+        <v>1.6509838113384312e-10</v>
+      </c>
+      <c r="E46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="F46">
+        <v>1.1965104099253152e-05</v>
+      </c>
+      <c r="G46">
+        <v>0.033055548578193698</v>
+      </c>
+      <c r="H46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="I46">
+        <v>0.93132769378228075</v>
+      </c>
+      <c r="J46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="K46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="L46">
+        <v>2.8962783666157727e-10</v>
+      </c>
+      <c r="M46">
+        <v>1.3588905888003396e-05</v>
+      </c>
+      <c r="N46">
+        <v>0.035591165472178048</v>
+      </c>
+      <c r="O46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="P46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="Q46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="R46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="S46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="T46">
+        <v>2.2213361882937214e-14</v>
+      </c>
+      <c r="U46">
+        <v>8</v>
+      </c>
+      <c r="V46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.8614540738291238e-07</v>
+      </c>
+      <c r="D47">
+        <v>3.403037942217403e-12</v>
+      </c>
+      <c r="E47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="F47">
+        <v>6.0449412888450443e-09</v>
+      </c>
+      <c r="G47">
+        <v>0.0094458944300319179</v>
+      </c>
+      <c r="H47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="I47">
+        <v>0.99048689988742056</v>
+      </c>
+      <c r="J47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="K47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="L47">
+        <v>6.6836901222274781e-05</v>
+      </c>
+      <c r="M47">
+        <v>6.1948071526992733e-10</v>
+      </c>
+      <c r="N47">
+        <v>7.5967848624107547e-08</v>
+      </c>
+      <c r="O47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="P47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="Q47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="R47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="S47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="T47">
+        <v>2.2201061682277064e-14</v>
+      </c>
+      <c r="U47">
+        <v>8</v>
+      </c>
+      <c r="V47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="C48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="D48">
+        <v>3.7757949700908517e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="F48">
+        <v>6.8509855183276945e-06</v>
+      </c>
+      <c r="G48">
+        <v>0.0055036916039108265</v>
+      </c>
+      <c r="H48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="I48">
+        <v>0.99437557622625272</v>
+      </c>
+      <c r="J48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="K48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="L48">
+        <v>3.6468698290149896e-05</v>
+      </c>
+      <c r="M48">
+        <v>2.6903211503078657e-09</v>
+      </c>
+      <c r="N48">
+        <v>7.7409795402594148e-05</v>
+      </c>
+      <c r="O48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="P48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="Q48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="R48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="S48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="T48">
+        <v>2.2201075231612028e-14</v>
+      </c>
+      <c r="U48">
+        <v>8</v>
+      </c>
+      <c r="V48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B49">
+        <v>3.8361357038589385e-08</v>
+      </c>
+      <c r="C49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="F49">
+        <v>1.9506562279700716e-06</v>
+      </c>
+      <c r="G49">
+        <v>1.7978718883145841e-07</v>
+      </c>
+      <c r="H49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="J49">
+        <v>0.99998095020285238</v>
+      </c>
+      <c r="K49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="L49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="M49">
+        <v>1.5253529812322621e-05</v>
+      </c>
+      <c r="N49">
+        <v>1.6274622727223046e-06</v>
+      </c>
+      <c r="O49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="P49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="Q49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="R49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="S49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="T49">
+        <v>2.2204438231099186e-14</v>
+      </c>
+      <c r="U49">
+        <v>9</v>
+      </c>
+      <c r="V49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B50">
+        <v>0.049326846435389669</v>
+      </c>
+      <c r="C50">
+        <v>0.049326836554925708</v>
+      </c>
+      <c r="D50">
+        <v>0.049326836554925708</v>
+      </c>
+      <c r="E50">
+        <v>0.049326836554925708</v>
+      </c>
+      <c r="F50">
+        <v>0.049326836687012272</v>
+      </c>
+      <c r="G50">
+        <v>0.060256918501181256</v>
+      </c>
+      <c r="H50">
+        <v>0.049326836554925695</v>
+      </c>
+      <c r="I50">
+        <v>0.049326836554925695</v>
+      </c>
+      <c r="J50">
+        <v>0.10090362774596331</v>
+      </c>
+      <c r="K50">
+        <v>0.049326836554925729</v>
+      </c>
+      <c r="L50">
+        <v>0.049487019006093931</v>
+      </c>
+      <c r="M50">
+        <v>0.049449872901359625</v>
+      </c>
+      <c r="N50">
+        <v>0.049326840063890882</v>
+      </c>
+      <c r="O50">
+        <v>0.049326836554925729</v>
+      </c>
+      <c r="P50">
+        <v>0.049326836554925736</v>
+      </c>
+      <c r="Q50">
+        <v>0.049326836554925833</v>
+      </c>
+      <c r="R50">
+        <v>0.049326836554925833</v>
+      </c>
+      <c r="S50">
+        <v>0.049326836554925736</v>
+      </c>
+      <c r="T50">
+        <v>0.049326836554925736</v>
+      </c>
+      <c r="U50">
+        <v>9</v>
+      </c>
+      <c r="V50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B51">
+        <v>1.3399075017868305e-09</v>
+      </c>
+      <c r="C51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="D51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="E51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="F51">
+        <v>4.3149975500536858e-06</v>
+      </c>
+      <c r="G51">
+        <v>4.260656694814552e-08</v>
+      </c>
+      <c r="H51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="I51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="J51">
+        <v>0.99966600940823303</v>
+      </c>
+      <c r="K51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="L51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="M51">
+        <v>0.00032840291348342594</v>
+      </c>
+      <c r="N51">
+        <v>1.2287339706047055e-06</v>
+      </c>
+      <c r="O51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="P51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="Q51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="R51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="S51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="T51">
+        <v>2.2204070557473334e-14</v>
+      </c>
+      <c r="U51">
+        <v>9</v>
+      </c>
+      <c r="V51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52">
+        <v>2.1477365338095603e-05</v>
+      </c>
+      <c r="C52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="F52">
+        <v>4.8044224937228902e-07</v>
+      </c>
+      <c r="G52">
+        <v>1.3827382386999165e-05</v>
+      </c>
+      <c r="H52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="J52">
+        <v>0.99871045742683517</v>
+      </c>
+      <c r="K52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="L52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="M52">
+        <v>1.4926069852270668e-05</v>
+      </c>
+      <c r="N52">
+        <v>0.0012388313130493496</v>
+      </c>
+      <c r="O52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="P52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="Q52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="R52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="S52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="T52">
+        <v>2.2202959200188509e-14</v>
+      </c>
+      <c r="U52">
+        <v>9</v>
+      </c>
+      <c r="V52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B53">
+        <v>1.0048096703176172e-05</v>
+      </c>
+      <c r="C53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="D53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="E53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="F53">
+        <v>1.980237255538543e-06</v>
+      </c>
+      <c r="G53">
+        <v>1.5430784617452699e-07</v>
+      </c>
+      <c r="H53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="I53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="J53">
+        <v>0.99978222992653676</v>
+      </c>
+      <c r="K53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="L53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="M53">
+        <v>0.00020409406631870201</v>
+      </c>
+      <c r="N53">
+        <v>1.493365050943761e-06</v>
+      </c>
+      <c r="O53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="P53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="Q53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="R53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="S53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="T53">
+        <v>2.2204206157929978e-14</v>
+      </c>
+      <c r="U53">
+        <v>9</v>
+      </c>
+      <c r="V53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B54">
+        <v>1.0029131282519535e-05</v>
+      </c>
+      <c r="C54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="D54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="E54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="F54">
+        <v>7.3358905327124328e-05</v>
+      </c>
+      <c r="G54">
+        <v>2.8615545795618247e-09</v>
+      </c>
+      <c r="H54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="J54">
+        <v>0.99944276179537217</v>
+      </c>
+      <c r="K54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="L54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="M54">
+        <v>3.2678481112773408e-05</v>
+      </c>
+      <c r="N54">
+        <v>0.00044116882506213659</v>
+      </c>
+      <c r="O54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="P54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="Q54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="R54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="S54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="T54">
+        <v>2.2203810344697895e-14</v>
+      </c>
+      <c r="U54">
+        <v>9</v>
+      </c>
+      <c r="V54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B55">
+        <v>6.5881022816255777e-06</v>
+      </c>
+      <c r="C55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="E55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="F55">
+        <v>2.0582556329910366e-05</v>
+      </c>
+      <c r="G55">
+        <v>1.1753190859602488e-08</v>
+      </c>
+      <c r="H55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="J55">
+        <v>0.99981322104515935</v>
+      </c>
+      <c r="K55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="L55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="M55">
+        <v>2.115224963325549e-05</v>
+      </c>
+      <c r="N55">
+        <v>0.00013844429311651643</v>
+      </c>
+      <c r="O55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="P55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="Q55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="R55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="S55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="T55">
+        <v>2.2204242332611762e-14</v>
+      </c>
+      <c r="U55">
+        <v>9</v>
+      </c>
+      <c r="V55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B56">
+        <v>2.2952846853074661e-05</v>
+      </c>
+      <c r="C56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="D56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="E56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="F56">
+        <v>0.00045286644558447612</v>
+      </c>
+      <c r="G56">
+        <v>0.0073664682225989169</v>
+      </c>
+      <c r="H56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="I56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="J56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="K56">
+        <v>0.99215453535865161</v>
+      </c>
+      <c r="L56">
+        <v>3.1549947727656424e-06</v>
+      </c>
+      <c r="M56">
+        <v>1.3876822599052284e-10</v>
+      </c>
+      <c r="N56">
+        <v>2.1992504406571865e-08</v>
+      </c>
+      <c r="O56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="P56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="Q56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="R56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="S56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="T56">
+        <v>2.2201318106196192e-14</v>
+      </c>
+      <c r="U56">
+        <v>10</v>
+      </c>
+      <c r="V56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B57">
+        <v>1.0299368266294258e-08</v>
+      </c>
+      <c r="C57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="D57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="E57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="F57">
+        <v>0.0063488342849793754</v>
+      </c>
+      <c r="G57">
+        <v>0.0024104285889648704</v>
+      </c>
+      <c r="H57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="I57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="J57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="K57">
+        <v>0.99123249569997485</v>
+      </c>
+      <c r="L57">
+        <v>6.2088120660244548e-06</v>
+      </c>
+      <c r="M57">
+        <v>2.5689285524784965e-13</v>
+      </c>
+      <c r="N57">
+        <v>2.0223141235064653e-06</v>
+      </c>
+      <c r="O57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="P57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="Q57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="R57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="S57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="T57">
+        <v>2.2202290900922191e-14</v>
+      </c>
+      <c r="U57">
+        <v>10</v>
+      </c>
+      <c r="V57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B58">
+        <v>0.0001551205516668504</v>
+      </c>
+      <c r="C58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="D58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="E58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="F58">
+        <v>0.0017434217042531066</v>
+      </c>
+      <c r="G58">
+        <v>0.0069297083790230297</v>
+      </c>
+      <c r="H58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="I58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="J58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="K58">
+        <v>0.99116090159416714</v>
+      </c>
+      <c r="L58">
+        <v>2.6539138526352264e-06</v>
+      </c>
+      <c r="M58">
+        <v>1.6626087082535908e-11</v>
+      </c>
+      <c r="N58">
+        <v>8.1938401446345303e-06</v>
+      </c>
+      <c r="O58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="P58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="Q58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="R58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="S58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="T58">
+        <v>2.2202075214552958e-14</v>
+      </c>
+      <c r="U58">
+        <v>10</v>
+      </c>
+      <c r="V58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B59">
+        <v>0.00085380426968713786</v>
+      </c>
+      <c r="C59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="D59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="E59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="F59">
+        <v>0.00014839556125051672</v>
+      </c>
+      <c r="G59">
+        <v>0.010591693656853404</v>
+      </c>
+      <c r="H59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="I59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="J59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="K59">
+        <v>0.98840350048869119</v>
+      </c>
+      <c r="L59">
+        <v>4.3567940033926247e-07</v>
+      </c>
+      <c r="M59">
+        <v>3.4872264109106615e-11</v>
+      </c>
+      <c r="N59">
+        <v>2.170308978560153e-06</v>
+      </c>
+      <c r="O59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="P59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="Q59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="R59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="S59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="T59">
+        <v>2.2201465572263547e-14</v>
+      </c>
+      <c r="U59">
+        <v>10</v>
+      </c>
+      <c r="V59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B60">
+        <v>0.051713236355069442</v>
+      </c>
+      <c r="C60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="D60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="E60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="F60">
+        <v>6.6584698137778624e-05</v>
+      </c>
+      <c r="G60">
+        <v>0.0082734375861134857</v>
+      </c>
+      <c r="H60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="I60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="J60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="K60">
+        <v>0.93983673776636789</v>
+      </c>
+      <c r="L60">
+        <v>4.7001112293233303e-07</v>
+      </c>
+      <c r="M60">
+        <v>3.3797206421061391e-12</v>
+      </c>
+      <c r="N60">
+        <v>0.00010953357954240098</v>
+      </c>
+      <c r="O60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="P60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="Q60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="R60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="S60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="T60">
+        <v>2.2201339759042542e-14</v>
+      </c>
+      <c r="U60">
+        <v>10</v>
+      </c>
+      <c r="V60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B61">
+        <v>6.2878096798088306e-08</v>
+      </c>
+      <c r="C61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="D61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="E61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="F61">
+        <v>0.0018093720384828797</v>
+      </c>
+      <c r="G61">
+        <v>0.0060262248715993458</v>
+      </c>
+      <c r="H61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="I61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="J61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="K61">
+        <v>0.99216398980321663</v>
+      </c>
+      <c r="L61">
+        <v>3.3436286654273139e-07</v>
+      </c>
+      <c r="M61">
+        <v>5.891184048140421e-11</v>
+      </c>
+      <c r="N61">
+        <v>1.5986559496507782e-08</v>
+      </c>
+      <c r="O61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="P61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="Q61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="R61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="S61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="T61">
+        <v>2.2202013821235615e-14</v>
+      </c>
+      <c r="U61">
+        <v>10</v>
+      </c>
+      <c r="V61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B62">
+        <v>7.9577839112348527e-10</v>
+      </c>
+      <c r="C62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="D62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="E62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="F62">
+        <v>0.00064035986372099204</v>
+      </c>
+      <c r="G62">
+        <v>0.0072591072405171339</v>
+      </c>
+      <c r="H62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="I62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="J62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="K62">
+        <v>0.99209808212407224</v>
+      </c>
+      <c r="L62">
+        <v>2.4397131538167217e-06</v>
+      </c>
+      <c r="M62">
+        <v>2.434421102266036e-09</v>
+      </c>
+      <c r="N62">
+        <v>7.8280699593664248e-09</v>
+      </c>
+      <c r="O62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="P62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="Q62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="R62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="S62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="T62">
+        <v>2.220141692010631e-14</v>
+      </c>
+      <c r="U62">
+        <v>10</v>
+      </c>
+      <c r="V62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B63">
+        <v>3.3805884236694023e-11</v>
+      </c>
+      <c r="C63">
+        <v>3.3805884236654124e-11</v>
+      </c>
+      <c r="D63">
+        <v>3.6797424962766267e-09</v>
+      </c>
+      <c r="E63">
+        <v>3.380588423665413e-11</v>
+      </c>
+      <c r="F63">
+        <v>0.0019558497560268904</v>
+      </c>
+      <c r="G63">
+        <v>0.062227471370515049</v>
+      </c>
+      <c r="H63">
+        <v>3.3805884236654118e-11</v>
+      </c>
+      <c r="I63">
+        <v>3.3805884236654098e-11</v>
+      </c>
+      <c r="J63">
+        <v>3.3805884236654098e-11</v>
+      </c>
+      <c r="K63">
+        <v>3.3805884236654286e-11</v>
+      </c>
+      <c r="L63">
+        <v>0.93491678412628254</v>
+      </c>
+      <c r="M63">
+        <v>0.00089988890421290177</v>
+      </c>
+      <c r="N63">
+        <v>1.7237434922003717e-09</v>
+      </c>
+      <c r="O63">
+        <v>3.3805884236654286e-11</v>
+      </c>
+      <c r="P63">
+        <v>3.3805884236654324e-11</v>
+      </c>
+      <c r="Q63">
+        <v>3.3805884236654324e-11</v>
+      </c>
+      <c r="R63">
+        <v>3.3805884236654324e-11</v>
+      </c>
+      <c r="S63">
+        <v>3.3805884236654247e-11</v>
+      </c>
+      <c r="T63">
+        <v>3.3805884236654034e-11</v>
+      </c>
+      <c r="U63">
+        <v>11</v>
+      </c>
+      <c r="V63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B64">
+        <v>0.0021156115571810221</v>
+      </c>
+      <c r="C64">
+        <v>0.0021156115571814068</v>
+      </c>
+      <c r="D64">
+        <v>0.0021156116576210361</v>
+      </c>
+      <c r="E64">
+        <v>0.0021156115571814055</v>
+      </c>
+      <c r="F64">
+        <v>0.0021156579518174642</v>
+      </c>
+      <c r="G64">
+        <v>0.0021391730556001641</v>
+      </c>
+      <c r="H64">
+        <v>0.0021156115571810174</v>
+      </c>
+      <c r="I64">
+        <v>0.0021156115571810078</v>
+      </c>
+      <c r="J64">
+        <v>0.0021156115571810078</v>
+      </c>
+      <c r="K64">
+        <v>0.0021156115571810074</v>
+      </c>
+      <c r="L64">
+        <v>0.96189445414006192</v>
+      </c>
+      <c r="M64">
+        <v>0.0021165413943633328</v>
+      </c>
+      <c r="N64">
+        <v>0.0021156115571817819</v>
+      </c>
+      <c r="O64">
+        <v>0.0021156115571810121</v>
+      </c>
+      <c r="P64">
+        <v>0.002115611557181016</v>
+      </c>
+      <c r="Q64">
+        <v>0.002115611557181016</v>
+      </c>
+      <c r="R64">
+        <v>0.002115611557181016</v>
+      </c>
+      <c r="S64">
+        <v>0.0021156115571810252</v>
+      </c>
+      <c r="T64">
+        <v>0.0021156115571810247</v>
+      </c>
+      <c r="U64">
+        <v>11</v>
+      </c>
+      <c r="V64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B65">
+        <v>0.068441428490250047</v>
+      </c>
+      <c r="C65">
+        <v>0.50824138094758542</v>
+      </c>
+      <c r="D65">
+        <v>3.9910591843475531e-09</v>
+      </c>
+      <c r="E65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="F65">
+        <v>1.3483241194752654e-08</v>
+      </c>
+      <c r="G65">
+        <v>0.03045639980174206</v>
+      </c>
+      <c r="H65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="I65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="J65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="K65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="L65">
+        <v>1.3641381578914133e-05</v>
+      </c>
+      <c r="M65">
+        <v>0.39240769517674967</v>
+      </c>
+      <c r="N65">
+        <v>0.00043943672754903098</v>
+      </c>
+      <c r="O65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="P65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="Q65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="R65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="S65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="T65">
+        <v>2.2209834712088156e-14</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B66">
+        <v>0.0019907820612260754</v>
+      </c>
+      <c r="C66">
+        <v>0.025767575618204187</v>
+      </c>
+      <c r="D66">
+        <v>1.609574785069798e-11</v>
+      </c>
+      <c r="E66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="F66">
+        <v>6.7922733279580532e-06</v>
+      </c>
+      <c r="G66">
+        <v>0.01545733671806857</v>
+      </c>
+      <c r="H66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="I66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="J66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="K66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="L66">
+        <v>1.316542565660407e-07</v>
+      </c>
+      <c r="M66">
+        <v>0.92385796414051846</v>
+      </c>
+      <c r="N66">
+        <v>0.032919417518058283</v>
+      </c>
+      <c r="O66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="P66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="Q66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="R66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="S66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="T66">
+        <v>2.2205091086321106e-14</v>
+      </c>
+      <c r="U66">
+        <v>12</v>
+      </c>
+      <c r="V66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B67">
+        <v>0.0044944143005771556</v>
+      </c>
+      <c r="C67">
+        <v>0.19034252510959088</v>
+      </c>
+      <c r="D67">
+        <v>7.2284454051162229e-09</v>
+      </c>
+      <c r="E67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="F67">
+        <v>1.4430600100341657e-10</v>
+      </c>
+      <c r="G67">
+        <v>0.01466164735876596</v>
+      </c>
+      <c r="H67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="J67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="K67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="L67">
+        <v>6.3875361069526839e-06</v>
+      </c>
+      <c r="M67">
+        <v>0.79041145079412123</v>
+      </c>
+      <c r="N67">
+        <v>8.356752784212806e-05</v>
+      </c>
+      <c r="O67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="P67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="Q67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="R67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="S67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="T67">
+        <v>2.2211871369778245e-14</v>
+      </c>
+      <c r="U67">
+        <v>12</v>
+      </c>
+      <c r="V67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B68">
+        <v>0.0059344751376868895</v>
+      </c>
+      <c r="C68">
+        <v>0.26445078871090033</v>
+      </c>
+      <c r="D68">
+        <v>2.6582899345613725e-10</v>
+      </c>
+      <c r="E68">
+        <v>5.2586898525658073e-14</v>
+      </c>
+      <c r="F68">
+        <v>6.1820564786905306e-07</v>
+      </c>
+      <c r="G68">
+        <v>0.034875743400053401</v>
+      </c>
+      <c r="H68">
+        <v>5.2586898525658073e-14</v>
+      </c>
+      <c r="I68">
+        <v>5.2586898525658073e-14</v>
+      </c>
+      <c r="J68">
+        <v>5.2586898525658073e-14</v>
+      </c>
+      <c r="K68">
+        <v>5.2586898525658054e-14</v>
+      </c>
+      <c r="L68">
+        <v>9.579335446783872e-08</v>
+      </c>
+      <c r="M68">
+        <v>0.42920752240775006</v>
+      </c>
+      <c r="N68">
+        <v>0.26553075607819915</v>
+      </c>
+      <c r="O68">
+        <v>5.2586898525658048e-14</v>
+      </c>
+      <c r="P68">
+        <v>5.2586898525658054e-14</v>
+      </c>
+      <c r="Q68">
+        <v>5.2586898525658054e-14</v>
+      </c>
+      <c r="R68">
+        <v>5.2586898525658054e-14</v>
+      </c>
+      <c r="S68">
+        <v>5.2586898525658092e-14</v>
+      </c>
+      <c r="T68">
+        <v>5.2586898525658092e-14</v>
+      </c>
+      <c r="U68">
+        <v>12</v>
+      </c>
+      <c r="V68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B69">
+        <v>8.2001096731429642e-06</v>
+      </c>
+      <c r="C69">
+        <v>0.092754294368238649</v>
+      </c>
+      <c r="D69">
+        <v>3.232145153313489e-09</v>
+      </c>
+      <c r="E69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="F69">
+        <v>1.074914491927923e-09</v>
+      </c>
+      <c r="G69">
+        <v>0.0076282264062672318</v>
+      </c>
+      <c r="H69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="I69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="J69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="K69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="L69">
+        <v>1.9170610350610942e-05</v>
+      </c>
+      <c r="M69">
+        <v>0.89951483498236195</v>
+      </c>
+      <c r="N69">
+        <v>7.5269215804438298e-05</v>
+      </c>
+      <c r="O69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="P69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="Q69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="R69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="S69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="T69">
+        <v>2.2202040148712645e-14</v>
+      </c>
+      <c r="U69">
+        <v>12</v>
+      </c>
+      <c r="V69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B70">
+        <v>0.19203322209574927</v>
+      </c>
+      <c r="C70">
+        <v>0.22983142061372783</v>
+      </c>
+      <c r="D70">
+        <v>2.4483395623364551e-09</v>
+      </c>
+      <c r="E70">
+        <v>5.0047666105513771e-14</v>
+      </c>
+      <c r="F70">
+        <v>6.7022834436855003e-08</v>
+      </c>
+      <c r="G70">
+        <v>0.058193644187117546</v>
+      </c>
+      <c r="H70">
+        <v>5.0047666105513752e-14</v>
+      </c>
+      <c r="I70">
+        <v>5.0047666105513752e-14</v>
+      </c>
+      <c r="J70">
+        <v>5.0047666105513752e-14</v>
+      </c>
+      <c r="K70">
+        <v>5.0047666105513714e-14</v>
+      </c>
+      <c r="L70">
+        <v>1.3354236074297093e-06</v>
+      </c>
+      <c r="M70">
+        <v>0.51377274601017009</v>
+      </c>
+      <c r="N70">
+        <v>0.0061675621979035353</v>
+      </c>
+      <c r="O70">
+        <v>5.0047666105513708e-14</v>
+      </c>
+      <c r="P70">
+        <v>5.0047666105513752e-14</v>
+      </c>
+      <c r="Q70">
+        <v>5.0047666105513752e-14</v>
+      </c>
+      <c r="R70">
+        <v>5.0047666105513752e-14</v>
+      </c>
+      <c r="S70">
+        <v>5.0047666105513746e-14</v>
+      </c>
+      <c r="T70">
+        <v>5.0047666105513746e-14</v>
+      </c>
+      <c r="U70">
+        <v>12</v>
+      </c>
+      <c r="V70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B71">
+        <v>0.00054766268850458286</v>
+      </c>
+      <c r="C71">
+        <v>0.31468197665828918</v>
+      </c>
+      <c r="D71">
+        <v>1.749172938451938e-09</v>
+      </c>
+      <c r="E71">
+        <v>2.4741091679819533e-14</v>
+      </c>
+      <c r="F71">
+        <v>1.0999755698303888e-08</v>
+      </c>
+      <c r="G71">
+        <v>0.028768326320354781</v>
+      </c>
+      <c r="H71">
+        <v>2.4741091679819543e-14</v>
+      </c>
+      <c r="I71">
+        <v>2.4741091679819543e-14</v>
+      </c>
+      <c r="J71">
+        <v>2.4741091679819543e-14</v>
+      </c>
+      <c r="K71">
+        <v>2.4741091679819533e-14</v>
+      </c>
+      <c r="L71">
+        <v>5.4521645215426292e-06</v>
+      </c>
+      <c r="M71">
+        <v>0.652124903385079</v>
+      </c>
+      <c r="N71">
+        <v>0.0038716660340505403</v>
+      </c>
+      <c r="O71">
+        <v>2.4741091679819537e-14</v>
+      </c>
+      <c r="P71">
+        <v>2.4741091679819537e-14</v>
+      </c>
+      <c r="Q71">
+        <v>2.4741091679819537e-14</v>
+      </c>
+      <c r="R71">
+        <v>2.4741091679819537e-14</v>
+      </c>
+      <c r="S71">
+        <v>2.4741091679819515e-14</v>
+      </c>
+      <c r="T71">
+        <v>2.4741091679819505e-14</v>
+      </c>
+      <c r="U71">
+        <v>12</v>
+      </c>
+      <c r="V71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B72">
+        <v>0.0058222215847579181</v>
+      </c>
+      <c r="C72">
+        <v>0.025987351287229593</v>
+      </c>
+      <c r="D72">
+        <v>2.2303687368862647e-10</v>
+      </c>
+      <c r="E72">
+        <v>5.4827830573804615e-14</v>
+      </c>
+      <c r="F72">
+        <v>7.4113076744155139e-06</v>
+      </c>
+      <c r="G72">
+        <v>0.025232636301550808</v>
+      </c>
+      <c r="H72">
+        <v>5.4827830573804603e-14</v>
+      </c>
+      <c r="I72">
+        <v>5.4827830573804603e-14</v>
+      </c>
+      <c r="J72">
+        <v>5.4827830573804603e-14</v>
+      </c>
+      <c r="K72">
+        <v>5.4827830573804521e-14</v>
+      </c>
+      <c r="L72">
+        <v>1.1193538585347541e-07</v>
+      </c>
+      <c r="M72">
+        <v>0.021273661815295931</v>
+      </c>
+      <c r="N72">
+        <v>0.92167660554446551</v>
+      </c>
+      <c r="O72">
+        <v>5.4827830573804521e-14</v>
+      </c>
+      <c r="P72">
+        <v>5.4827830573804521e-14</v>
+      </c>
+      <c r="Q72">
+        <v>5.4827830573804521e-14</v>
+      </c>
+      <c r="R72">
+        <v>5.4827830573804521e-14</v>
+      </c>
+      <c r="S72">
+        <v>5.4827830573804628e-14</v>
+      </c>
+      <c r="T72">
+        <v>5.4827830573804578e-14</v>
+      </c>
+      <c r="U72">
+        <v>13</v>
+      </c>
+      <c r="V72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B73">
+        <v>0.047532751582021755</v>
+      </c>
+      <c r="C73">
+        <v>0.131113940566816</v>
+      </c>
+      <c r="D73">
+        <v>8.8482437617958423e-12</v>
+      </c>
+      <c r="E73">
+        <v>2.8587688156613926e-14</v>
+      </c>
+      <c r="F73">
+        <v>0.00021045848410416909</v>
+      </c>
+      <c r="G73">
+        <v>0.015754436933154883</v>
+      </c>
+      <c r="H73">
+        <v>2.8587688156613938e-14</v>
+      </c>
+      <c r="I73">
+        <v>2.8587688156613938e-14</v>
+      </c>
+      <c r="J73">
+        <v>2.8587688156613938e-14</v>
+      </c>
+      <c r="K73">
+        <v>2.8587688156613938e-14</v>
+      </c>
+      <c r="L73">
+        <v>8.2315170020180101e-09</v>
+      </c>
+      <c r="M73">
+        <v>0.0055687789915127321</v>
+      </c>
+      <c r="N73">
+        <v>0.79981962520171057</v>
+      </c>
+      <c r="O73">
+        <v>2.8587688156613932e-14</v>
+      </c>
+      <c r="P73">
+        <v>2.8587688156613932e-14</v>
+      </c>
+      <c r="Q73">
+        <v>2.8587688156613932e-14</v>
+      </c>
+      <c r="R73">
+        <v>2.8587688156613932e-14</v>
+      </c>
+      <c r="S73">
+        <v>2.858768815661392e-14</v>
+      </c>
+      <c r="T73">
+        <v>2.858768815661392e-14</v>
+      </c>
+      <c r="U73">
+        <v>13</v>
+      </c>
+      <c r="V73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B74">
+        <v>0.0014145782695712099</v>
+      </c>
+      <c r="C74">
+        <v>0.085695243158211254</v>
+      </c>
+      <c r="D74">
+        <v>9.6543718078829483e-11</v>
+      </c>
+      <c r="E74">
+        <v>4.5883563020033052e-14</v>
+      </c>
+      <c r="F74">
+        <v>1.6496950360035249e-05</v>
+      </c>
+      <c r="G74">
+        <v>0.01555940872939268</v>
+      </c>
+      <c r="H74">
+        <v>4.5883563020033077e-14</v>
+      </c>
+      <c r="I74">
+        <v>4.5883563020033077e-14</v>
+      </c>
+      <c r="J74">
+        <v>4.5883563020033077e-14</v>
+      </c>
+      <c r="K74">
+        <v>4.5883563020033039e-14</v>
+      </c>
+      <c r="L74">
+        <v>1.5853401845133269e-07</v>
+      </c>
+      <c r="M74">
+        <v>0.076718492897157695</v>
+      </c>
+      <c r="N74">
+        <v>0.82059562136424002</v>
+      </c>
+      <c r="O74">
+        <v>4.5883563020033033e-14</v>
+      </c>
+      <c r="P74">
+        <v>4.5883563020033045e-14</v>
+      </c>
+      <c r="Q74">
+        <v>4.5883563020033045e-14</v>
+      </c>
+      <c r="R74">
+        <v>4.5883563020033045e-14</v>
+      </c>
+      <c r="S74">
+        <v>4.5883563020033052e-14</v>
+      </c>
+      <c r="T74">
+        <v>4.5883563020033039e-14</v>
+      </c>
+      <c r="U74">
+        <v>13</v>
+      </c>
+      <c r="V74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B75">
+        <v>0.021257163838055693</v>
+      </c>
+      <c r="C75">
+        <v>0.037248148185377104</v>
+      </c>
+      <c r="D75">
+        <v>6.4579263232213642e-12</v>
+      </c>
+      <c r="E75">
+        <v>5.0139927149107638e-14</v>
+      </c>
+      <c r="F75">
+        <v>0.0041742233646550279</v>
+      </c>
+      <c r="G75">
+        <v>0.0079615812327737505</v>
+      </c>
+      <c r="H75">
+        <v>5.0139927149107638e-14</v>
+      </c>
+      <c r="I75">
+        <v>5.0139927149107638e-14</v>
+      </c>
+      <c r="J75">
+        <v>5.0139927149107638e-14</v>
+      </c>
+      <c r="K75">
+        <v>5.0139927149107701e-14</v>
+      </c>
+      <c r="L75">
+        <v>3.5373414997703388e-08</v>
+      </c>
+      <c r="M75">
+        <v>0.034741008552072725</v>
+      </c>
+      <c r="N75">
+        <v>0.89461783944664131</v>
+      </c>
+      <c r="O75">
+        <v>5.0139927149107726e-14</v>
+      </c>
+      <c r="P75">
+        <v>5.0139927149107739e-14</v>
+      </c>
+      <c r="Q75">
+        <v>5.0139927149107739e-14</v>
+      </c>
+      <c r="R75">
+        <v>5.0139927149107739e-14</v>
+      </c>
+      <c r="S75">
+        <v>5.0139927149107701e-14</v>
+      </c>
+      <c r="T75">
+        <v>5.0139927149107701e-14</v>
+      </c>
+      <c r="U75">
+        <v>13</v>
+      </c>
+      <c r="V75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B76">
+        <v>0.0087896227874414527</v>
+      </c>
+      <c r="C76">
+        <v>0.0074813385832694966</v>
+      </c>
+      <c r="D76">
+        <v>8.4540360181309978e-11</v>
+      </c>
+      <c r="E76">
+        <v>1.3490764371804889e-13</v>
+      </c>
+      <c r="F76">
+        <v>0.00011381083807473091</v>
+      </c>
+      <c r="G76">
+        <v>0.046025751867682048</v>
+      </c>
+      <c r="H76">
+        <v>1.3490764371804874e-13</v>
+      </c>
+      <c r="I76">
+        <v>1.3490764371804874e-13</v>
+      </c>
+      <c r="J76">
+        <v>1.3490764371804874e-13</v>
+      </c>
+      <c r="K76">
+        <v>1.3490764371804874e-13</v>
+      </c>
+      <c r="L76">
+        <v>5.6826303319040197e-07</v>
+      </c>
+      <c r="M76">
+        <v>0.23394419342361561</v>
+      </c>
+      <c r="N76">
+        <v>0.70364471415085983</v>
+      </c>
+      <c r="O76">
+        <v>1.3490764371804723e-13</v>
+      </c>
+      <c r="P76">
+        <v>1.3490764371804723e-13</v>
+      </c>
+      <c r="Q76">
+        <v>1.3490764371804723e-13</v>
+      </c>
+      <c r="R76">
+        <v>1.3490764371804723e-13</v>
+      </c>
+      <c r="S76">
+        <v>1.3490764371804713e-13</v>
+      </c>
+      <c r="T76">
+        <v>1.3490764371804713e-13</v>
+      </c>
+      <c r="U76">
+        <v>13</v>
+      </c>
+      <c r="V76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B77">
+        <v>1.4047154323102658e-06</v>
+      </c>
+      <c r="C77">
+        <v>3.3320742268216864e-11</v>
+      </c>
+      <c r="D77">
+        <v>1.042423413756229e-08</v>
+      </c>
+      <c r="E77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="F77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="G77">
+        <v>0.0050516504524406557</v>
+      </c>
+      <c r="H77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="I77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="J77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="K77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="L77">
+        <v>5.6619516211283447e-10</v>
+      </c>
+      <c r="M77">
+        <v>6.49649646939723e-09</v>
+      </c>
+      <c r="N77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="O77">
+        <v>0.99494692731161416</v>
+      </c>
+      <c r="P77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="Q77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="R77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="S77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="T77">
+        <v>2.2200998790790629e-14</v>
+      </c>
+      <c r="U77">
+        <v>14</v>
+      </c>
+      <c r="V77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B78">
+        <v>7.0877731830612338e-05</v>
+      </c>
+      <c r="C78">
+        <v>6.9136301958274465e-10</v>
+      </c>
+      <c r="D78">
+        <v>7.466928750166196e-08</v>
+      </c>
+      <c r="E78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="F78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="G78">
+        <v>0.0028896697405986684</v>
+      </c>
+      <c r="H78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="I78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="J78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="K78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="L78">
+        <v>1.6458305734754623e-10</v>
+      </c>
+      <c r="M78">
+        <v>7.0137654046179907e-07</v>
+      </c>
+      <c r="N78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="O78">
+        <v>0.99703867562553028</v>
+      </c>
+      <c r="P78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="Q78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="R78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="S78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="T78">
+        <v>2.2201029981450999e-14</v>
+      </c>
+      <c r="U78">
+        <v>14</v>
+      </c>
+      <c r="V78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B79">
+        <v>3.9028261469041511e-09</v>
+      </c>
+      <c r="C79">
+        <v>1.0996511722299018e-09</v>
+      </c>
+      <c r="D79">
+        <v>2.0550713209462458e-07</v>
+      </c>
+      <c r="E79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="F79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="G79">
+        <v>0.0035461237357233368</v>
+      </c>
+      <c r="H79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="I79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="J79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="K79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="L79">
+        <v>1.0979567751173716e-09</v>
+      </c>
+      <c r="M79">
+        <v>2.3025680468097325e-07</v>
+      </c>
+      <c r="N79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="O79">
+        <v>0.99645343439963929</v>
+      </c>
+      <c r="P79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="Q79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="R79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="S79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="T79">
+        <v>2.2200986207885698e-14</v>
+      </c>
+      <c r="U79">
+        <v>14</v>
+      </c>
+      <c r="V79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B80">
+        <v>0.030015940500116585</v>
+      </c>
+      <c r="C80">
+        <v>2.4390557103412182e-10</v>
+      </c>
+      <c r="D80">
+        <v>1.5398699781375974e-08</v>
+      </c>
+      <c r="E80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="F80">
+        <v>4.3401506948379356e-14</v>
+      </c>
+      <c r="G80">
+        <v>0.00023515677998415917</v>
+      </c>
+      <c r="H80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="I80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="J80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="K80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="L80">
+        <v>7.7075825745172131e-13</v>
+      </c>
+      <c r="M80">
+        <v>3.0734725029061917e-08</v>
+      </c>
+      <c r="N80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="O80">
+        <v>0.96974885634151065</v>
+      </c>
+      <c r="P80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="Q80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="R80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="S80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="T80">
+        <v>2.2200107577016284e-14</v>
+      </c>
+      <c r="U80">
+        <v>14</v>
+      </c>
+      <c r="V80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B81">
+        <v>1.4033039805809987e-07</v>
+      </c>
+      <c r="C81">
+        <v>7.4361502415205472e-13</v>
+      </c>
+      <c r="D81">
+        <v>1.3661023378063615e-10</v>
+      </c>
+      <c r="E81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="F81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="G81">
+        <v>0.048521284622734771</v>
+      </c>
+      <c r="H81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="I81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="J81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="K81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="L81">
+        <v>7.508977422423713e-11</v>
+      </c>
+      <c r="M81">
+        <v>1.2449613348017621e-11</v>
+      </c>
+      <c r="N81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="O81">
+        <v>0.9514785748217075</v>
+      </c>
+      <c r="P81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="Q81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="R81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="S81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="T81">
+        <v>2.2201293752917376e-14</v>
+      </c>
+      <c r="U81">
+        <v>14</v>
+      </c>
+      <c r="V81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B82">
+        <v>3.7522456200450514e-10</v>
+      </c>
+      <c r="C82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="D82">
+        <v>4.5830783806604327e-14</v>
+      </c>
+      <c r="E82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="F82">
+        <v>0.0019071515479097034</v>
+      </c>
+      <c r="G82">
+        <v>0.007261692839715915</v>
+      </c>
+      <c r="H82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="I82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="J82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="K82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="L82">
+        <v>0.0001256571642607266</v>
+      </c>
+      <c r="M82">
+        <v>2.3626138110419083e-07</v>
+      </c>
+      <c r="N82">
+        <v>0.00098880818931519599</v>
+      </c>
+      <c r="O82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="P82">
+        <v>0.98971645362190275</v>
+      </c>
+      <c r="Q82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="R82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="S82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="T82">
+        <v>2.2202521615842649e-14</v>
+      </c>
+      <c r="U82">
+        <v>15</v>
+      </c>
+      <c r="V82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B83">
+        <v>2.9721691776331197e-08</v>
+      </c>
+      <c r="C83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="D83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="E83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="F83">
+        <v>0.0045232597467087217</v>
+      </c>
+      <c r="G83">
+        <v>0.0016228496695228436</v>
+      </c>
+      <c r="H83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="I83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="J83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="K83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="L83">
+        <v>1.0890678054518319e-05</v>
+      </c>
+      <c r="M83">
+        <v>2.9929211595075063e-08</v>
+      </c>
+      <c r="N83">
+        <v>0.00041187406569212633</v>
+      </c>
+      <c r="O83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="P83">
+        <v>0.99343106618885202</v>
+      </c>
+      <c r="Q83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="R83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="S83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="T83">
+        <v>2.2202051442430454e-14</v>
+      </c>
+      <c r="U83">
+        <v>15</v>
+      </c>
+      <c r="V83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="C84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="D84">
+        <v>5.0087577456414117e-12</v>
+      </c>
+      <c r="E84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="F84">
+        <v>0.00034612866886370787</v>
+      </c>
+      <c r="G84">
+        <v>0.0015282486536073653</v>
+      </c>
+      <c r="H84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="I84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="J84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="K84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="L84">
+        <v>0.016729885420900686</v>
+      </c>
+      <c r="M84">
+        <v>0.00038959735926711653</v>
+      </c>
+      <c r="N84">
+        <v>7.3278703849426343e-08</v>
+      </c>
+      <c r="O84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="P84">
+        <v>0.98100606661338208</v>
+      </c>
+      <c r="Q84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="R84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="S84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="T84">
+        <v>2.2201350379581111e-14</v>
+      </c>
+      <c r="U84">
+        <v>15</v>
+      </c>
+      <c r="V84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B85">
+        <v>1.2997942690917317e-05</v>
+      </c>
+      <c r="C85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="D85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="E85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="F85">
+        <v>0.00057984152049289205</v>
+      </c>
+      <c r="G85">
+        <v>0.0060151355219945045</v>
+      </c>
+      <c r="H85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="I85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="J85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="K85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="L85">
+        <v>5.1492943616944257e-07</v>
+      </c>
+      <c r="M85">
+        <v>2.8934163263766095e-08</v>
+      </c>
+      <c r="N85">
+        <v>0.014644568221499709</v>
+      </c>
+      <c r="O85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="P85">
+        <v>0.97874691292945604</v>
+      </c>
+      <c r="Q85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="R85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="S85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="T85">
+        <v>2.2203433309126183e-14</v>
+      </c>
+      <c r="U85">
+        <v>15</v>
+      </c>
+      <c r="V85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B86">
+        <v>0.0029371843268476291</v>
+      </c>
+      <c r="C86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="D86">
+        <v>7.5874474090965935e-14</v>
+      </c>
+      <c r="E86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="F86">
+        <v>0.00043512419834507474</v>
+      </c>
+      <c r="G86">
+        <v>0.0017112408269788111</v>
+      </c>
+      <c r="H86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="I86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="J86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="K86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="L86">
+        <v>1.2706982230219803e-08</v>
+      </c>
+      <c r="M86">
+        <v>1.1874592271263421e-08</v>
+      </c>
+      <c r="N86">
+        <v>0.012236928793256113</v>
+      </c>
+      <c r="O86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="P86">
+        <v>0.98267949727267778</v>
+      </c>
+      <c r="Q86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="R86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="S86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="T86">
+        <v>2.2202875446477749e-14</v>
+      </c>
+      <c r="U86">
+        <v>15</v>
+      </c>
+      <c r="V86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B87">
+        <v>1.7998480104117143e-06</v>
+      </c>
+      <c r="C87">
+        <v>2.033478395190572e-05</v>
+      </c>
+      <c r="D87">
+        <v>2.9825039091126465e-08</v>
+      </c>
+      <c r="E87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="F87">
+        <v>1.3974401081296114e-11</v>
+      </c>
+      <c r="G87">
+        <v>0.0084569288364248103</v>
+      </c>
+      <c r="H87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="I87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="J87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="K87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="L87">
+        <v>1.1762436783449122e-07</v>
+      </c>
+      <c r="M87">
+        <v>0.0014285730581019165</v>
+      </c>
+      <c r="N87">
+        <v>4.1937345042363566e-08</v>
+      </c>
+      <c r="O87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="P87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="Q87">
+        <v>0.99009217407256267</v>
+      </c>
+      <c r="R87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="S87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="T87">
+        <v>2.220182934834745e-14</v>
+      </c>
+      <c r="U87">
+        <v>16</v>
+      </c>
+      <c r="V87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B88">
+        <v>0.0053624804670014802</v>
+      </c>
+      <c r="C88">
+        <v>2.5008053228768881e-05</v>
+      </c>
+      <c r="D88">
+        <v>1.9605134533320764e-06</v>
+      </c>
+      <c r="E88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="F88">
+        <v>1.1513203601313742e-13</v>
+      </c>
+      <c r="G88">
+        <v>0.0083180722003519652</v>
+      </c>
+      <c r="H88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="I88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="J88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="K88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="L88">
+        <v>2.8874245263125342e-08</v>
+      </c>
+      <c r="M88">
+        <v>0.00061419949552895679</v>
+      </c>
+      <c r="N88">
+        <v>1.3595197490227271e-10</v>
+      </c>
+      <c r="O88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="P88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="Q88">
+        <v>0.98567825025990108</v>
+      </c>
+      <c r="R88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="S88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="T88">
+        <v>2.2203387571490351e-14</v>
+      </c>
+      <c r="U88">
+        <v>16</v>
+      </c>
+      <c r="V88">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B89">
+        <v>1.0436457225003262e-06</v>
+      </c>
+      <c r="C89">
+        <v>0.0007523568295190919</v>
+      </c>
+      <c r="D89">
+        <v>7.8272806044455545e-09</v>
+      </c>
+      <c r="E89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="F89">
+        <v>2.9505942481260699e-11</v>
+      </c>
+      <c r="G89">
+        <v>0.0060952720624888055</v>
+      </c>
+      <c r="H89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="I89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="J89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="K89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="L89">
+        <v>4.6889951812997019e-07</v>
+      </c>
+      <c r="M89">
+        <v>0.0047023228588075668</v>
+      </c>
+      <c r="N89">
+        <v>2.7149649191581153e-08</v>
+      </c>
+      <c r="O89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="P89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="Q89">
+        <v>0.98844850069728607</v>
+      </c>
+      <c r="R89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="S89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="T89">
+        <v>2.2203182960557883e-14</v>
+      </c>
+      <c r="U89">
+        <v>16</v>
+      </c>
+      <c r="V89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B90">
+        <v>7.4618555864139449e-07</v>
+      </c>
+      <c r="C90">
+        <v>1.9405390019231705e-05</v>
+      </c>
+      <c r="D90">
+        <v>5.1743729413917274e-08</v>
+      </c>
+      <c r="E90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="F90">
+        <v>6.0023946487136232e-12</v>
+      </c>
+      <c r="G90">
+        <v>0.010089021241506515</v>
+      </c>
+      <c r="H90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="I90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="J90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="K90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="L90">
+        <v>1.0128827794113091e-07</v>
+      </c>
+      <c r="M90">
+        <v>0.00089013409130571559</v>
+      </c>
+      <c r="N90">
+        <v>2.7320057395668536e-08</v>
+      </c>
+      <c r="O90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="P90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="Q90">
+        <v>0.98900051273332079</v>
+      </c>
+      <c r="R90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="S90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="T90">
+        <v>2.220146751096966e-14</v>
+      </c>
+      <c r="U90">
+        <v>16</v>
+      </c>
+      <c r="V90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B91">
+        <v>5.03653846216256e-06</v>
+      </c>
+      <c r="C91">
+        <v>0.00028828874256163652</v>
+      </c>
+      <c r="D91">
+        <v>3.2504318111461423e-08</v>
+      </c>
+      <c r="E91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="F91">
+        <v>6.4167197034185731e-12</v>
+      </c>
+      <c r="G91">
+        <v>0.0068542550585324307</v>
+      </c>
+      <c r="H91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="I91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="J91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="K91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="L91">
+        <v>2.7051018912839707e-07</v>
+      </c>
+      <c r="M91">
+        <v>0.0028067806665853408</v>
+      </c>
+      <c r="N91">
+        <v>5.9263240932278454e-09</v>
+      </c>
+      <c r="O91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="P91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="Q91">
+        <v>0.99004533004638828</v>
+      </c>
+      <c r="R91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="S91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="T91">
+        <v>2.2202569466619973e-14</v>
+      </c>
+      <c r="U91">
+        <v>16</v>
+      </c>
+      <c r="V91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B92">
+        <v>7.9348034085707126e-09</v>
+      </c>
+      <c r="C92">
+        <v>0.021205063704054394</v>
+      </c>
+      <c r="D92">
+        <v>0.00024432584114451953</v>
+      </c>
+      <c r="E92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="F92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="G92">
+        <v>0.0023869664073718133</v>
+      </c>
+      <c r="H92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="I92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="J92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="K92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="L92">
+        <v>1.3037841294863907e-07</v>
+      </c>
+      <c r="M92">
+        <v>0.00041786399628189323</v>
+      </c>
+      <c r="N92">
+        <v>7.0786957469484997e-12</v>
+      </c>
+      <c r="O92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="P92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="Q92">
+        <v>0.97574564173060807</v>
+      </c>
+      <c r="R92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="S92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="T92">
+        <v>2.2201167332816128e-14</v>
+      </c>
+      <c r="U92">
+        <v>16</v>
+      </c>
+      <c r="V92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B93">
+        <v>5.0562005545142386e-07</v>
+      </c>
+      <c r="C93">
+        <v>1.2610704757282605e-06</v>
+      </c>
+      <c r="D93">
+        <v>7.1149166911385221e-08</v>
+      </c>
+      <c r="E93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="F93">
+        <v>3.1234522469399521e-11</v>
+      </c>
+      <c r="G93">
+        <v>4.6269500432228386e-09</v>
+      </c>
+      <c r="H93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="I93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="J93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="K93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="L93">
+        <v>8.7652227722184938e-11</v>
+      </c>
+      <c r="M93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="N93">
+        <v>0.00017052927414770637</v>
+      </c>
+      <c r="O93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="P93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="Q93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="R93">
+        <v>0.9998276281400732</v>
+      </c>
+      <c r="S93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="T93">
+        <v>2.2204259151680704e-14</v>
+      </c>
+      <c r="U93">
+        <v>17</v>
+      </c>
+      <c r="V93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B94">
+        <v>6.919863903586563e-05</v>
+      </c>
+      <c r="C94">
+        <v>1.1068400432285676e-13</v>
+      </c>
+      <c r="D94">
+        <v>4.6003777375639509e-08</v>
+      </c>
+      <c r="E94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="F94">
+        <v>2.042208729404274e-12</v>
+      </c>
+      <c r="G94">
+        <v>8.8562646914231495e-09</v>
+      </c>
+      <c r="H94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="I94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="J94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="K94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="L94">
+        <v>3.7708867808496835e-11</v>
+      </c>
+      <c r="M94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="N94">
+        <v>0.0038029935234238136</v>
+      </c>
+      <c r="O94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="P94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="Q94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="R94">
+        <v>0.99612775293739231</v>
+      </c>
+      <c r="S94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="T94">
+        <v>2.2201008852610611e-14</v>
+      </c>
+      <c r="U94">
+        <v>17</v>
+      </c>
+      <c r="V94">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B95">
+        <v>2.1627107065146025e-07</v>
+      </c>
+      <c r="C95">
+        <v>4.2004867789799418e-07</v>
+      </c>
+      <c r="D95">
+        <v>1.990802868890058e-07</v>
+      </c>
+      <c r="E95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="F95">
+        <v>7.4429316794785406e-12</v>
+      </c>
+      <c r="G95">
+        <v>2.7435871190393005e-09</v>
+      </c>
+      <c r="H95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="I95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="J95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="K95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="L95">
+        <v>8.7770220870301042e-11</v>
+      </c>
+      <c r="M95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="N95">
+        <v>6.6201314732014795e-05</v>
+      </c>
+      <c r="O95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="P95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="Q95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="R95">
+        <v>0.99993296044618807</v>
+      </c>
+      <c r="S95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="T95">
+        <v>2.2204382161851235e-14</v>
+      </c>
+      <c r="U95">
+        <v>17</v>
+      </c>
+      <c r="V95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B96">
+        <v>0.049797608012793489</v>
+      </c>
+      <c r="C96">
+        <v>0.049793145861361167</v>
+      </c>
+      <c r="D96">
+        <v>0.049793155434673643</v>
+      </c>
+      <c r="E96">
+        <v>0.049793074343736192</v>
+      </c>
+      <c r="F96">
+        <v>0.049793074348671029</v>
+      </c>
+      <c r="G96">
+        <v>0.049793092272560437</v>
+      </c>
+      <c r="H96">
+        <v>0.049793074343736199</v>
+      </c>
+      <c r="I96">
+        <v>0.049793074343736192</v>
+      </c>
+      <c r="J96">
+        <v>0.049793074343736192</v>
+      </c>
+      <c r="K96">
+        <v>0.049793074343736289</v>
+      </c>
+      <c r="L96">
+        <v>0.049793074413335067</v>
+      </c>
+      <c r="M96">
+        <v>0.049793074343736289</v>
+      </c>
+      <c r="N96">
+        <v>0.049944623868920526</v>
+      </c>
+      <c r="O96">
+        <v>0.049793074343736268</v>
+      </c>
+      <c r="P96">
+        <v>0.049793074343736289</v>
+      </c>
+      <c r="Q96">
+        <v>0.049793074343736289</v>
+      </c>
+      <c r="R96">
+        <v>0.10356840800658589</v>
+      </c>
+      <c r="S96">
+        <v>0.049793074343736275</v>
+      </c>
+      <c r="T96">
+        <v>0.049793074343736275</v>
+      </c>
+      <c r="U96">
+        <v>17</v>
+      </c>
+      <c r="V96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B97">
+        <v>2.7370559137974331e-05</v>
+      </c>
+      <c r="C97">
+        <v>5.8795346532527214e-08</v>
+      </c>
+      <c r="D97">
+        <v>6.4087622954983925e-08</v>
+      </c>
+      <c r="E97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="F97">
+        <v>2.1485063096394118e-11</v>
+      </c>
+      <c r="G97">
+        <v>2.586224494960867e-09</v>
+      </c>
+      <c r="H97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="I97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="J97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="K97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="L97">
+        <v>7.4110157593123987e-11</v>
+      </c>
+      <c r="M97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="N97">
+        <v>9.6258413149384996e-05</v>
+      </c>
+      <c r="O97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="P97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="Q97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="R97">
+        <v>0.99987624546267928</v>
+      </c>
+      <c r="S97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="T97">
+        <v>2.2204315918907127e-14</v>
+      </c>
+      <c r="U97">
+        <v>17</v>
+      </c>
+      <c r="V97">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B98">
+        <v>0.00062536487930225232</v>
+      </c>
+      <c r="C98">
+        <v>1.2798137132098056e-10</v>
+      </c>
+      <c r="D98">
+        <v>4.0637054033043648e-08</v>
+      </c>
+      <c r="E98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="F98">
+        <v>5.0420653227449121e-12</v>
+      </c>
+      <c r="G98">
+        <v>3.6137554999801811e-09</v>
+      </c>
+      <c r="H98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="I98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="J98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="K98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="L98">
+        <v>4.7894103482242516e-11</v>
+      </c>
+      <c r="M98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="N98">
+        <v>0.00010064057640203257</v>
+      </c>
+      <c r="O98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="P98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="Q98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="R98">
+        <v>0.99927395011232445</v>
+      </c>
+      <c r="S98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="T98">
+        <v>2.220361380965931e-14</v>
+      </c>
+      <c r="U98">
+        <v>17</v>
+      </c>
+      <c r="V98">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="C99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="D99">
+        <v>7.3645156502475615e-05</v>
+      </c>
+      <c r="E99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="F99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="G99">
+        <v>0.0018229749394847964</v>
+      </c>
+      <c r="H99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="I99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="J99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="K99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="L99">
+        <v>0.00017125333997340371</v>
+      </c>
+      <c r="M99">
+        <v>0.014084609028755258</v>
+      </c>
+      <c r="N99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="O99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="P99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="Q99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="R99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="S99">
+        <v>0.98384751753497324</v>
+      </c>
+      <c r="T99">
+        <v>2.2201638395624944e-14</v>
+      </c>
+      <c r="U99">
+        <v>18</v>
+      </c>
+      <c r="V99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="C100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="D100">
+        <v>0.00025294990730784288</v>
+      </c>
+      <c r="E100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="F100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="G100">
+        <v>0.00071543528961764361</v>
+      </c>
+      <c r="H100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="I100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="J100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="K100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="L100">
+        <v>2.7815567312479012e-06</v>
+      </c>
+      <c r="M100">
+        <v>0.00026428713119350776</v>
+      </c>
+      <c r="N100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="O100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="P100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="Q100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="R100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="S100">
+        <v>0.99876454611483889</v>
+      </c>
+      <c r="T100">
+        <v>2.2203021942408719e-14</v>
+      </c>
+      <c r="U100">
+        <v>18</v>
+      </c>
+      <c r="V100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="C101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="D101">
+        <v>1.9031955758757529e-08</v>
+      </c>
+      <c r="E101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="F101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="G101">
+        <v>0.069018912109247016</v>
+      </c>
+      <c r="H101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="I101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="J101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="K101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="L101">
+        <v>0.63015086215305505</v>
+      </c>
+      <c r="M101">
+        <v>0.27150774266244343</v>
+      </c>
+      <c r="N101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="O101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="P101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="Q101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="R101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="S101">
+        <v>0.02932246404298619</v>
+      </c>
+      <c r="T101">
+        <v>2.2327433557186906e-14</v>
+      </c>
+      <c r="U101">
+        <v>11</v>
+      </c>
+      <c r="V101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="C102">
+        <v>1.4570401802199884e-13</v>
+      </c>
+      <c r="D102">
+        <v>0.28629052919460385</v>
+      </c>
+      <c r="E102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="F102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="G102">
+        <v>0.00017778250411507125</v>
+      </c>
+      <c r="H102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="I102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="J102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="K102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="L102">
+        <v>0.0022698126635976616</v>
+      </c>
+      <c r="M102">
+        <v>0.0024364411481596739</v>
+      </c>
+      <c r="N102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="O102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="P102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="Q102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="R102">
+        <v>0.019472722029602537</v>
+      </c>
+      <c r="S102">
+        <v>0.68935271245950847</v>
+      </c>
+      <c r="T102">
+        <v>2.2245467871688459e-14</v>
+      </c>
+      <c r="U102">
+        <v>18</v>
+      </c>
+      <c r="V102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="C103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="D103">
+        <v>0.00013379324654376592</v>
+      </c>
+      <c r="E103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="F103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="G103">
+        <v>0.0016352486109450595</v>
+      </c>
+      <c r="H103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="I103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="J103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="K103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="L103">
+        <v>3.2237503593000504e-06</v>
+      </c>
+      <c r="M103">
+        <v>3.7698990482457687e-05</v>
+      </c>
+      <c r="N103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="O103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="P103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="Q103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="R103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="S103">
+        <v>0.99819003540135864</v>
+      </c>
+      <c r="T103">
+        <v>2.220235657391918e-14</v>
+      </c>
+      <c r="U103">
+        <v>18</v>
+      </c>
+      <c r="V103">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B104">
+        <v>0.00017532602452556242</v>
+      </c>
+      <c r="C104">
+        <v>5.1265577468974829e-14</v>
+      </c>
+      <c r="D104">
+        <v>1.5227195489806523e-11</v>
+      </c>
+      <c r="E104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="F104">
+        <v>0.022419893367906441</v>
+      </c>
+      <c r="G104">
+        <v>0.00042287967064189182</v>
+      </c>
+      <c r="H104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="I104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="J104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="K104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="L104">
+        <v>2.2827910269146101e-12</v>
+      </c>
+      <c r="M104">
+        <v>4.108904754851258e-09</v>
+      </c>
+      <c r="N104">
+        <v>0.014065772327751842</v>
+      </c>
+      <c r="O104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="P104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="Q104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="R104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="S104">
+        <v>2.2205750231032989e-14</v>
+      </c>
+      <c r="T104">
+        <v>0.9629161244824862</v>
+      </c>
+      <c r="U104">
+        <v>19</v>
+      </c>
+      <c r="V104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B105">
+        <v>2.9823816514627032e-06</v>
+      </c>
+      <c r="C105">
+        <v>3.8409577245265827e-14</v>
+      </c>
+      <c r="D105">
+        <v>3.8639879863402105e-11</v>
+      </c>
+      <c r="E105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="F105">
+        <v>0.022091208260888076</v>
+      </c>
+      <c r="G105">
+        <v>0.00025958866860060131</v>
+      </c>
+      <c r="H105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="I105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="J105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="K105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="L105">
+        <v>6.9137544565805245e-13</v>
+      </c>
+      <c r="M105">
+        <v>1.109997072048714e-08</v>
+      </c>
+      <c r="N105">
+        <v>0.011134585008226639</v>
+      </c>
+      <c r="O105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="P105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="Q105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="R105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="S105">
+        <v>2.2204904119990559e-14</v>
+      </c>
+      <c r="T105">
+        <v>0.96651162454107087</v>
+      </c>
+      <c r="U105">
+        <v>19</v>
+      </c>
+      <c r="V105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B106">
+        <v>1.6887501595835233e-05</v>
+      </c>
+      <c r="C106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="D106">
+        <v>1.1394234986241031e-10</v>
+      </c>
+      <c r="E106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="F106">
+        <v>0.0074112693436455103</v>
+      </c>
+      <c r="G106">
+        <v>0.00010380911228550974</v>
+      </c>
+      <c r="H106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="I106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="J106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="K106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="L106">
+        <v>5.1814415546152898e-13</v>
+      </c>
+      <c r="M106">
+        <v>9.6366213380006035e-09</v>
+      </c>
+      <c r="N106">
+        <v>0.0010365503567729276</v>
+      </c>
+      <c r="O106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="P106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="Q106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="R106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="S106">
+        <v>2.2201700285198583e-14</v>
+      </c>
+      <c r="T106">
+        <v>0.99143147393437425</v>
+      </c>
+      <c r="U106">
+        <v>19</v>
+      </c>
+      <c r="V106">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B107">
+        <v>4.0222949183027338e-05</v>
+      </c>
+      <c r="C107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="D107">
+        <v>1.6938370647196562e-11</v>
+      </c>
+      <c r="E107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="F107">
+        <v>0.009174620794212893</v>
+      </c>
+      <c r="G107">
+        <v>0.00092580698007650394</v>
+      </c>
+      <c r="H107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="I107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="J107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="K107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="L107">
+        <v>3.4330850473678392e-12</v>
+      </c>
+      <c r="M107">
+        <v>1.5291172225510756e-08</v>
+      </c>
+      <c r="N107">
+        <v>0.026307986917946471</v>
+      </c>
+      <c r="O107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="P107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="Q107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="R107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="S107">
+        <v>2.2204014564381689e-14</v>
+      </c>
+      <c r="T107">
+        <v>0.96355134704679324</v>
+      </c>
+      <c r="U107">
+        <v>19</v>
+      </c>
+      <c r="V107">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>